--- a/data_selection/result/地区生产总值-江门-先行指标-V1.xlsx
+++ b/data_selection/result/地区生产总值-江门-先行指标-V1.xlsx
@@ -430,7 +430,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B22"/>
+  <dimension ref="A1:B23"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -453,7 +453,7 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>特征数据滞后期数</t>
+          <t>特征滞后期数</t>
         </is>
       </c>
       <c r="B2" t="inlineStr"/>
@@ -461,47 +461,47 @@
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>2016年06月</t>
+          <t>2016年03月</t>
         </is>
       </c>
       <c r="B3" t="n">
-        <v>7.4</v>
+        <v>7.3</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>2016年09月</t>
+          <t>2016年06月</t>
         </is>
       </c>
       <c r="B4" t="n">
-        <v>7.3</v>
+        <v>7.4</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>2016年12月</t>
+          <t>2016年09月</t>
         </is>
       </c>
       <c r="B5" t="n">
-        <v>7.4</v>
+        <v>7.3</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>2017年03月</t>
+          <t>2016年12月</t>
         </is>
       </c>
       <c r="B6" t="n">
-        <v>8</v>
+        <v>7.4</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>2017年06月</t>
+          <t>2017年03月</t>
         </is>
       </c>
       <c r="B7" t="n">
@@ -511,17 +511,17 @@
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>2017年09月</t>
+          <t>2017年06月</t>
         </is>
       </c>
       <c r="B8" t="n">
-        <v>8.1</v>
+        <v>8</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>2017年12月</t>
+          <t>2017年09月</t>
         </is>
       </c>
       <c r="B9" t="n">
@@ -531,130 +531,140 @@
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>2018年03月</t>
+          <t>2017年12月</t>
         </is>
       </c>
       <c r="B10" t="n">
-        <v>8.699999999999999</v>
+        <v>8.1</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>2018年06月</t>
+          <t>2018年03月</t>
         </is>
       </c>
       <c r="B11" t="n">
-        <v>7.8</v>
+        <v>8.699999999999999</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>2018年09月</t>
+          <t>2018年06月</t>
         </is>
       </c>
       <c r="B12" t="n">
-        <v>7.7</v>
+        <v>7.8</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>2018年12月</t>
+          <t>2018年09月</t>
         </is>
       </c>
       <c r="B13" t="n">
-        <v>7.8</v>
+        <v>7.7</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>2019年03月</t>
+          <t>2018年12月</t>
         </is>
       </c>
       <c r="B14" t="n">
-        <v>6</v>
+        <v>7.8</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>2019年06月</t>
+          <t>2019年03月</t>
         </is>
       </c>
       <c r="B15" t="n">
-        <v>4</v>
+        <v>6</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>2019年09月</t>
+          <t>2019年06月</t>
         </is>
       </c>
       <c r="B16" t="n">
-        <v>4.2</v>
+        <v>4</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>2019年12月</t>
+          <t>2019年09月</t>
         </is>
       </c>
       <c r="B17" t="n">
-        <v>4.3</v>
+        <v>4.2</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>2020年03月</t>
+          <t>2019年12月</t>
         </is>
       </c>
       <c r="B18" t="n">
-        <v>-11.5</v>
+        <v>4.3</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t>2020年06月</t>
+          <t>2020年03月</t>
         </is>
       </c>
       <c r="B19" t="n">
-        <v>-3.8</v>
+        <v>-11.5</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
         <is>
-          <t>2020年09月</t>
+          <t>2020年06月</t>
         </is>
       </c>
       <c r="B20" t="n">
-        <v>0.3</v>
+        <v>-3.8</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
         <is>
-          <t>2020年12月</t>
+          <t>2020年09月</t>
         </is>
       </c>
       <c r="B21" t="n">
-        <v>2.2</v>
+        <v>0.3</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="inlineStr">
         <is>
+          <t>2020年12月</t>
+        </is>
+      </c>
+      <c r="B22" t="n">
+        <v>2.2</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" t="inlineStr">
+        <is>
           <t>2021年03月</t>
         </is>
       </c>
-      <c r="B22" t="n">
+      <c r="B23" t="n">
         <v>21.4</v>
       </c>
     </row>
@@ -687,14 +697,247 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:A1"/>
+  <dimension ref="A1:B23"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
-  <sheetData/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>日期</t>
+        </is>
+      </c>
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>地区生产总值</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="inlineStr">
+        <is>
+          <t>特征滞后期数</t>
+        </is>
+      </c>
+      <c r="B2" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="inlineStr">
+        <is>
+          <t>2016年03月</t>
+        </is>
+      </c>
+      <c r="B3" t="n">
+        <v>7.3</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="inlineStr">
+        <is>
+          <t>2016年06月</t>
+        </is>
+      </c>
+      <c r="B4" t="n">
+        <v>7.4</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="inlineStr">
+        <is>
+          <t>2016年09月</t>
+        </is>
+      </c>
+      <c r="B5" t="n">
+        <v>7.3</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="inlineStr">
+        <is>
+          <t>2016年12月</t>
+        </is>
+      </c>
+      <c r="B6" t="n">
+        <v>7.4</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="inlineStr">
+        <is>
+          <t>2017年03月</t>
+        </is>
+      </c>
+      <c r="B7" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="inlineStr">
+        <is>
+          <t>2017年06月</t>
+        </is>
+      </c>
+      <c r="B8" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="inlineStr">
+        <is>
+          <t>2017年09月</t>
+        </is>
+      </c>
+      <c r="B9" t="n">
+        <v>8.1</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="inlineStr">
+        <is>
+          <t>2017年12月</t>
+        </is>
+      </c>
+      <c r="B10" t="n">
+        <v>8.1</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="inlineStr">
+        <is>
+          <t>2018年03月</t>
+        </is>
+      </c>
+      <c r="B11" t="n">
+        <v>8.699999999999999</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="inlineStr">
+        <is>
+          <t>2018年06月</t>
+        </is>
+      </c>
+      <c r="B12" t="n">
+        <v>7.8</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="inlineStr">
+        <is>
+          <t>2018年09月</t>
+        </is>
+      </c>
+      <c r="B13" t="n">
+        <v>7.7</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="inlineStr">
+        <is>
+          <t>2018年12月</t>
+        </is>
+      </c>
+      <c r="B14" t="n">
+        <v>7.8</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="inlineStr">
+        <is>
+          <t>2019年03月</t>
+        </is>
+      </c>
+      <c r="B15" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="inlineStr">
+        <is>
+          <t>2019年06月</t>
+        </is>
+      </c>
+      <c r="B16" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="inlineStr">
+        <is>
+          <t>2019年09月</t>
+        </is>
+      </c>
+      <c r="B17" t="n">
+        <v>4.2</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="inlineStr">
+        <is>
+          <t>2019年12月</t>
+        </is>
+      </c>
+      <c r="B18" t="n">
+        <v>4.3</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="inlineStr">
+        <is>
+          <t>2020年03月</t>
+        </is>
+      </c>
+      <c r="B19" t="n">
+        <v>-11.5</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="inlineStr">
+        <is>
+          <t>2020年06月</t>
+        </is>
+      </c>
+      <c r="B20" t="n">
+        <v>-3.8</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" t="inlineStr">
+        <is>
+          <t>2020年09月</t>
+        </is>
+      </c>
+      <c r="B21" t="n">
+        <v>0.3</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" t="inlineStr">
+        <is>
+          <t>2020年12月</t>
+        </is>
+      </c>
+      <c r="B22" t="n">
+        <v>2.2</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" t="inlineStr">
+        <is>
+          <t>2021年03月</t>
+        </is>
+      </c>
+      <c r="B23" t="n">
+        <v>21.4</v>
+      </c>
+    </row>
+  </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
 </file>
@@ -705,7 +948,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:S59"/>
+  <dimension ref="A1:S60"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -813,11 +1056,11 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>特征数据滞后期数</t>
+          <t>特征滞后期数</t>
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C2" t="n">
         <v>1</v>
@@ -826,10 +1069,10 @@
         <v>1</v>
       </c>
       <c r="E2" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="F2" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="G2" t="n">
         <v>2</v>
@@ -838,7 +1081,7 @@
         <v>2</v>
       </c>
       <c r="I2" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J2" t="n">
         <v>1</v>
@@ -850,36 +1093,34 @@
         <v>1</v>
       </c>
       <c r="M2" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="N2" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="O2" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="P2" t="n">
         <v>4</v>
       </c>
       <c r="Q2" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="R2" t="n">
+        <v>2</v>
+      </c>
+      <c r="S2" t="n">
         <v>1</v>
-      </c>
-      <c r="S2" t="n">
-        <v>2</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>2016年04月</t>
-        </is>
-      </c>
-      <c r="B3" t="n">
-        <v>5.8</v>
-      </c>
+          <t>2016年03月</t>
+        </is>
+      </c>
+      <c r="B3" t="inlineStr"/>
       <c r="C3" t="inlineStr"/>
       <c r="D3" t="inlineStr"/>
       <c r="E3" t="inlineStr"/>
@@ -901,76 +1142,76 @@
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>2016年05月</t>
+          <t>2016年04月</t>
         </is>
       </c>
       <c r="B4" t="n">
-        <v>17.1</v>
+        <v>8.300000000000001</v>
       </c>
       <c r="C4" t="n">
-        <v>37.4</v>
+        <v>52.7</v>
       </c>
       <c r="D4" t="n">
-        <v>7.1</v>
-      </c>
-      <c r="E4" t="n">
-        <v>11.6455696202532</v>
-      </c>
+        <v>7</v>
+      </c>
+      <c r="E4" t="inlineStr"/>
       <c r="F4" t="inlineStr"/>
       <c r="G4" t="inlineStr"/>
       <c r="H4" t="inlineStr"/>
-      <c r="I4" t="inlineStr"/>
+      <c r="I4" t="n">
+        <v>5.6</v>
+      </c>
       <c r="J4" t="n">
-        <v>-2.7</v>
+        <v>-0.4</v>
       </c>
       <c r="K4" t="n">
-        <v>4.1</v>
+        <v>0.7</v>
       </c>
       <c r="L4" t="n">
-        <v>-11.9</v>
-      </c>
-      <c r="M4" t="n">
-        <v>4.7</v>
-      </c>
+        <v>-9.1</v>
+      </c>
+      <c r="M4" t="inlineStr"/>
       <c r="N4" t="inlineStr"/>
       <c r="O4" t="inlineStr"/>
       <c r="P4" t="inlineStr"/>
-      <c r="Q4" t="inlineStr"/>
-      <c r="R4" t="n">
-        <v>6.29629629629627</v>
-      </c>
-      <c r="S4" t="inlineStr"/>
+      <c r="Q4" t="n">
+        <v>29.9</v>
+      </c>
+      <c r="R4" t="inlineStr"/>
+      <c r="S4" t="n">
+        <v>-1.5836</v>
+      </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>2016年06月</t>
+          <t>2016年05月</t>
         </is>
       </c>
       <c r="B5" t="n">
-        <v>14.2</v>
+        <v>5.8</v>
       </c>
       <c r="C5" t="n">
-        <v>25.03</v>
+        <v>37.4</v>
       </c>
       <c r="D5" t="n">
-        <v>6.1</v>
-      </c>
-      <c r="E5" t="n">
-        <v>11.3636363636364</v>
-      </c>
-      <c r="F5" t="inlineStr"/>
+        <v>7.1</v>
+      </c>
+      <c r="E5" t="inlineStr"/>
+      <c r="F5" t="n">
+        <v>108.6</v>
+      </c>
       <c r="G5" t="n">
-        <v>31.1</v>
+        <v>29.5</v>
       </c>
       <c r="H5" t="n">
-        <v>31</v>
+        <v>29.3</v>
       </c>
       <c r="I5" t="n">
         <v>8.5</v>
       </c>
       <c r="J5" t="n">
-        <v>5.2</v>
+        <v>-2.7</v>
       </c>
       <c r="K5" t="n">
         <v>4.1</v>
@@ -979,16 +1220,16 @@
         <v>-11.9</v>
       </c>
       <c r="M5" t="n">
-        <v>5.6</v>
-      </c>
-      <c r="N5" t="n">
-        <v>6</v>
-      </c>
+        <v>4</v>
+      </c>
+      <c r="N5" t="inlineStr"/>
       <c r="O5" t="inlineStr"/>
       <c r="P5" t="inlineStr"/>
-      <c r="Q5" t="inlineStr"/>
+      <c r="Q5" t="n">
+        <v>25.9</v>
+      </c>
       <c r="R5" t="n">
-        <v>-32.1371610845295</v>
+        <v>6.064880112835</v>
       </c>
       <c r="S5" t="n">
         <v>-0.3727</v>
@@ -997,53 +1238,53 @@
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>2016年07月</t>
+          <t>2016年06月</t>
         </is>
       </c>
       <c r="B6" t="n">
-        <v>12.8</v>
+        <v>17.1</v>
       </c>
       <c r="C6" t="n">
-        <v>25.4</v>
+        <v>25.03</v>
       </c>
       <c r="D6" t="n">
-        <v>4.5</v>
-      </c>
-      <c r="E6" t="n">
-        <v>13.3165829145729</v>
-      </c>
-      <c r="F6" t="inlineStr"/>
+        <v>6.1</v>
+      </c>
+      <c r="E6" t="inlineStr"/>
+      <c r="F6" t="n">
+        <v>40.5</v>
+      </c>
       <c r="G6" t="n">
-        <v>32</v>
+        <v>31.1</v>
       </c>
       <c r="H6" t="n">
-        <v>31.9</v>
+        <v>31</v>
       </c>
       <c r="I6" t="n">
         <v>8.1</v>
       </c>
       <c r="J6" t="n">
+        <v>5.2</v>
+      </c>
+      <c r="K6" t="n">
+        <v>4.1</v>
+      </c>
+      <c r="L6" t="n">
+        <v>-11.9</v>
+      </c>
+      <c r="M6" t="n">
         <v>4.7</v>
       </c>
-      <c r="K6" t="n">
-        <v>5.3</v>
-      </c>
-      <c r="L6" t="n">
-        <v>-12.3</v>
-      </c>
-      <c r="M6" t="n">
-        <v>5.6</v>
-      </c>
       <c r="N6" t="n">
-        <v>6</v>
-      </c>
-      <c r="O6" t="n">
-        <v>9.58227380412723</v>
-      </c>
+        <v>6.4</v>
+      </c>
+      <c r="O6" t="inlineStr"/>
       <c r="P6" t="inlineStr"/>
-      <c r="Q6" t="inlineStr"/>
+      <c r="Q6" t="n">
+        <v>27.6</v>
+      </c>
       <c r="R6" t="n">
-        <v>-31.2633832976446</v>
+        <v>6.29629629629627</v>
       </c>
       <c r="S6" t="n">
         <v>0.1191</v>
@@ -1052,59 +1293,59 @@
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>2016年08月</t>
+          <t>2016年07月</t>
         </is>
       </c>
       <c r="B7" t="n">
-        <v>5.2</v>
+        <v>14.2</v>
       </c>
       <c r="C7" t="n">
-        <v>-22.2</v>
+        <v>25.4</v>
       </c>
       <c r="D7" t="n">
-        <v>5.3</v>
+        <v>4.5</v>
       </c>
       <c r="E7" t="n">
-        <v>12.7764127764128</v>
+        <v>11.6455696202532</v>
       </c>
       <c r="F7" t="n">
-        <v>40.5</v>
+        <v>38.1</v>
       </c>
       <c r="G7" t="n">
-        <v>28.5</v>
+        <v>32</v>
       </c>
       <c r="H7" t="n">
-        <v>28.5</v>
+        <v>31.9</v>
       </c>
       <c r="I7" t="n">
         <v>12.4</v>
       </c>
       <c r="J7" t="n">
-        <v>6.6</v>
+        <v>4.7</v>
       </c>
       <c r="K7" t="n">
-        <v>2.4</v>
+        <v>5.3</v>
       </c>
       <c r="L7" t="n">
-        <v>-10.7</v>
+        <v>-12.3</v>
       </c>
       <c r="M7" t="n">
-        <v>5.4</v>
+        <v>5.6</v>
       </c>
       <c r="N7" t="n">
         <v>6</v>
       </c>
       <c r="O7" t="n">
-        <v>9.53852280011397</v>
+        <v>9.58227380412723</v>
       </c>
       <c r="P7" t="n">
-        <v>8.5</v>
+        <v>6.4</v>
       </c>
       <c r="Q7" t="n">
-        <v>25.9</v>
+        <v>24.6</v>
       </c>
       <c r="R7" t="n">
-        <v>-4.95049504950496</v>
+        <v>-32.1371610845295</v>
       </c>
       <c r="S7" t="n">
         <v>0.9871</v>
@@ -1113,59 +1354,59 @@
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>2016年09月</t>
+          <t>2016年08月</t>
         </is>
       </c>
       <c r="B8" t="n">
-        <v>7.7</v>
+        <v>12.8</v>
       </c>
       <c r="C8" t="n">
-        <v>-9.9</v>
+        <v>-22.2</v>
       </c>
       <c r="D8" t="n">
-        <v>5.9</v>
+        <v>5.3</v>
       </c>
       <c r="E8" t="n">
-        <v>13.7592137592138</v>
+        <v>11.6455696202532</v>
       </c>
       <c r="F8" t="n">
-        <v>38.1</v>
+        <v>48.9</v>
       </c>
       <c r="G8" t="n">
-        <v>23.8</v>
+        <v>28.5</v>
       </c>
       <c r="H8" t="n">
-        <v>23.8</v>
+        <v>28.5</v>
       </c>
       <c r="I8" t="n">
         <v>7.2</v>
       </c>
       <c r="J8" t="n">
-        <v>5.9</v>
+        <v>6.6</v>
       </c>
       <c r="K8" t="n">
-        <v>3.9</v>
+        <v>2.4</v>
       </c>
       <c r="L8" t="n">
-        <v>-10.2</v>
+        <v>-10.7</v>
       </c>
       <c r="M8" t="n">
-        <v>5.5</v>
+        <v>5.6</v>
       </c>
       <c r="N8" t="n">
-        <v>5.8</v>
+        <v>6</v>
       </c>
       <c r="O8" t="n">
-        <v>10.1995957167117</v>
+        <v>9.58227380412723</v>
       </c>
       <c r="P8" t="n">
-        <v>8.4</v>
+        <v>8.5</v>
       </c>
       <c r="Q8" t="n">
-        <v>27.6</v>
+        <v>24.3</v>
       </c>
       <c r="R8" t="n">
-        <v>28.1150159744409</v>
+        <v>-31.2633832976446</v>
       </c>
       <c r="S8" t="n">
         <v>1.8101</v>
@@ -1174,59 +1415,59 @@
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>2016年10月</t>
+          <t>2016年09月</t>
         </is>
       </c>
       <c r="B9" t="n">
-        <v>7.7</v>
+        <v>5.2</v>
       </c>
       <c r="C9" t="n">
-        <v>-13</v>
+        <v>-9.9</v>
       </c>
       <c r="D9" t="n">
-        <v>5.8</v>
+        <v>5.9</v>
       </c>
       <c r="E9" t="n">
-        <v>12.0481927710843</v>
+        <v>11.3636363636364</v>
       </c>
       <c r="F9" t="n">
-        <v>48.9</v>
+        <v>52</v>
       </c>
       <c r="G9" t="n">
-        <v>22.5</v>
+        <v>23.8</v>
       </c>
       <c r="H9" t="n">
-        <v>22.9</v>
+        <v>23.8</v>
       </c>
       <c r="I9" t="n">
         <v>11.4</v>
       </c>
       <c r="J9" t="n">
-        <v>3.7</v>
+        <v>5.9</v>
       </c>
       <c r="K9" t="n">
-        <v>2.4</v>
+        <v>3.9</v>
       </c>
       <c r="L9" t="n">
-        <v>-9.300000000000001</v>
+        <v>-10.2</v>
       </c>
       <c r="M9" t="n">
-        <v>5.3</v>
+        <v>5.4</v>
       </c>
       <c r="N9" t="n">
-        <v>5.9</v>
+        <v>6</v>
       </c>
       <c r="O9" t="n">
-        <v>10.8565164313456</v>
+        <v>9.53852280011397</v>
       </c>
       <c r="P9" t="n">
-        <v>9.699999999999999</v>
+        <v>8.4</v>
       </c>
       <c r="Q9" t="n">
-        <v>24.6</v>
+        <v>24.7</v>
       </c>
       <c r="R9" t="n">
-        <v>30.9148264984227</v>
+        <v>-4.95049504950496</v>
       </c>
       <c r="S9" t="n">
         <v>2.4336</v>
@@ -1235,55 +1476,59 @@
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>2016年11月</t>
+          <t>2016年10月</t>
         </is>
       </c>
       <c r="B10" t="n">
-        <v>9.6</v>
+        <v>7.7</v>
       </c>
       <c r="C10" t="n">
-        <v>-4.1</v>
+        <v>-13</v>
       </c>
       <c r="D10" t="n">
-        <v>4.9</v>
+        <v>5.8</v>
       </c>
       <c r="E10" t="n">
-        <v>13.3333333333333</v>
+        <v>13.3165829145729</v>
       </c>
       <c r="F10" t="n">
-        <v>52</v>
+        <v>45.1</v>
       </c>
       <c r="G10" t="n">
-        <v>19.4</v>
+        <v>22.5</v>
       </c>
       <c r="H10" t="n">
-        <v>19.4</v>
+        <v>22.9</v>
       </c>
       <c r="I10" t="n">
         <v>10.9</v>
       </c>
       <c r="J10" t="n">
-        <v>3.2</v>
-      </c>
-      <c r="K10" t="inlineStr"/>
-      <c r="L10" t="inlineStr"/>
+        <v>3.7</v>
+      </c>
+      <c r="K10" t="n">
+        <v>2.4</v>
+      </c>
+      <c r="L10" t="n">
+        <v>-9.300000000000001</v>
+      </c>
       <c r="M10" t="n">
-        <v>5.4</v>
+        <v>5.5</v>
       </c>
       <c r="N10" t="n">
-        <v>6.1</v>
+        <v>5.8</v>
       </c>
       <c r="O10" t="n">
-        <v>12.22161602243</v>
+        <v>10.1995957167117</v>
       </c>
       <c r="P10" t="n">
-        <v>12.2</v>
+        <v>9.699999999999999</v>
       </c>
       <c r="Q10" t="n">
-        <v>24.3</v>
+        <v>26</v>
       </c>
       <c r="R10" t="n">
-        <v>52.2222222222222</v>
+        <v>28.1150159744409</v>
       </c>
       <c r="S10" t="n">
         <v>3.234</v>
@@ -1292,59 +1537,55 @@
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>2016年12月</t>
+          <t>2016年11月</t>
         </is>
       </c>
       <c r="B11" t="n">
-        <v>13.9</v>
+        <v>7.7</v>
       </c>
       <c r="C11" t="n">
-        <v>4</v>
+        <v>-4.1</v>
       </c>
       <c r="D11" t="n">
-        <v>8.6</v>
+        <v>4.9</v>
       </c>
       <c r="E11" t="n">
-        <v>12.9716981132075</v>
+        <v>12.7764127764128</v>
       </c>
       <c r="F11" t="n">
-        <v>45.1</v>
+        <v>32.3</v>
       </c>
       <c r="G11" t="n">
-        <v>19</v>
+        <v>19.4</v>
       </c>
       <c r="H11" t="n">
-        <v>19</v>
+        <v>19.4</v>
       </c>
       <c r="I11" t="n">
         <v>11.9</v>
       </c>
       <c r="J11" t="n">
-        <v>3.4</v>
-      </c>
-      <c r="K11" t="n">
-        <v>5.5</v>
-      </c>
-      <c r="L11" t="n">
-        <v>-9.300000000000001</v>
-      </c>
+        <v>3.2</v>
+      </c>
+      <c r="K11" t="inlineStr"/>
+      <c r="L11" t="inlineStr"/>
       <c r="M11" t="n">
-        <v>5.4</v>
+        <v>5.3</v>
       </c>
       <c r="N11" t="n">
-        <v>6.3</v>
+        <v>5.9</v>
       </c>
       <c r="O11" t="n">
-        <v>8.172713933870689</v>
+        <v>10.8565164313456</v>
       </c>
       <c r="P11" t="n">
-        <v>12.4</v>
+        <v>12.2</v>
       </c>
       <c r="Q11" t="n">
-        <v>24.7</v>
+        <v>26.7</v>
       </c>
       <c r="R11" t="n">
-        <v>44.0776699029126</v>
+        <v>30.9148264984227</v>
       </c>
       <c r="S11" t="n">
         <v>5.9075</v>
@@ -1353,59 +1594,59 @@
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>2017年02月</t>
+          <t>2016年12月</t>
         </is>
       </c>
       <c r="B12" t="n">
-        <v>13.5</v>
+        <v>9.6</v>
       </c>
       <c r="C12" t="n">
-        <v>11.8</v>
+        <v>4</v>
       </c>
       <c r="D12" t="n">
-        <v>8.4</v>
+        <v>8.6</v>
       </c>
       <c r="E12" t="n">
-        <v>11.368909512761</v>
+        <v>13.7592137592138</v>
       </c>
       <c r="F12" t="n">
-        <v>32.3</v>
+        <v>39.7</v>
       </c>
       <c r="G12" t="n">
-        <v>17.3</v>
+        <v>19</v>
       </c>
       <c r="H12" t="n">
-        <v>17.3</v>
+        <v>19</v>
       </c>
       <c r="I12" t="n">
         <v>13.6</v>
       </c>
       <c r="J12" t="n">
-        <v>4</v>
+        <v>3.4</v>
       </c>
       <c r="K12" t="n">
-        <v>12.6</v>
+        <v>5.5</v>
       </c>
       <c r="L12" t="n">
         <v>-9.300000000000001</v>
       </c>
       <c r="M12" t="n">
-        <v>5.5</v>
+        <v>5.4</v>
       </c>
       <c r="N12" t="n">
-        <v>6.4</v>
+        <v>6.1</v>
       </c>
       <c r="O12" t="n">
-        <v>9.28238857536596</v>
+        <v>12.22161602243</v>
       </c>
       <c r="P12" t="n">
-        <v>11.9</v>
+        <v>12.4</v>
       </c>
       <c r="Q12" t="n">
-        <v>26</v>
+        <v>28.2</v>
       </c>
       <c r="R12" t="n">
-        <v>9.71128608923885</v>
+        <v>52.2222222222222</v>
       </c>
       <c r="S12" t="n">
         <v>7.3708</v>
@@ -1414,59 +1655,59 @@
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>2017年03月</t>
+          <t>2017年02月</t>
         </is>
       </c>
       <c r="B13" t="n">
-        <v>8.5</v>
+        <v>13.9</v>
       </c>
       <c r="C13" t="n">
-        <v>-35.31</v>
+        <v>11.8</v>
       </c>
       <c r="D13" t="n">
-        <v>15.9</v>
+        <v>8.4</v>
       </c>
       <c r="E13" t="n">
-        <v>12.1004566210046</v>
+        <v>12.0481927710843</v>
       </c>
       <c r="F13" t="n">
-        <v>39.7</v>
+        <v>42.8</v>
       </c>
       <c r="G13" t="n">
-        <v>18.1</v>
+        <v>17.3</v>
       </c>
       <c r="H13" t="n">
-        <v>18.1</v>
+        <v>17.3</v>
       </c>
       <c r="I13" t="n">
         <v>22.2</v>
       </c>
       <c r="J13" t="n">
-        <v>20.7</v>
+        <v>4</v>
       </c>
       <c r="K13" t="n">
-        <v>13.7</v>
+        <v>12.6</v>
       </c>
       <c r="L13" t="n">
-        <v>-1.4</v>
+        <v>-9.300000000000001</v>
       </c>
       <c r="M13" t="n">
-        <v>0.4</v>
+        <v>5.4</v>
       </c>
       <c r="N13" t="n">
-        <v>6.7</v>
+        <v>6.3</v>
       </c>
       <c r="O13" t="n">
-        <v>8.916476574810151</v>
+        <v>8.172713933870689</v>
       </c>
       <c r="P13" t="n">
-        <v>10.3</v>
+        <v>11.9</v>
       </c>
       <c r="Q13" t="n">
-        <v>26.7</v>
+        <v>36.7</v>
       </c>
       <c r="R13" t="n">
-        <v>-3.76811594202898</v>
+        <v>44.0776699029126</v>
       </c>
       <c r="S13" t="n">
         <v>10.6</v>
@@ -1475,59 +1716,59 @@
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>2017年04月</t>
+          <t>2017年03月</t>
         </is>
       </c>
       <c r="B14" t="n">
-        <v>0.1</v>
+        <v>13.5</v>
       </c>
       <c r="C14" t="n">
-        <v>-55.8</v>
+        <v>-35.31</v>
       </c>
       <c r="D14" t="n">
-        <v>14.7</v>
+        <v>15.9</v>
       </c>
       <c r="E14" t="n">
-        <v>11.5646258503401</v>
+        <v>13.3333333333333</v>
       </c>
       <c r="F14" t="n">
-        <v>42.8</v>
+        <v>29</v>
       </c>
       <c r="G14" t="n">
-        <v>15.1</v>
+        <v>18.1</v>
       </c>
       <c r="H14" t="n">
-        <v>15.1</v>
+        <v>18.1</v>
       </c>
       <c r="I14" t="n">
         <v>63.4</v>
       </c>
       <c r="J14" t="n">
-        <v>22.6</v>
+        <v>20.7</v>
       </c>
       <c r="K14" t="n">
-        <v>21</v>
+        <v>13.7</v>
       </c>
       <c r="L14" t="n">
-        <v>1.9</v>
+        <v>-1.4</v>
       </c>
       <c r="M14" t="n">
-        <v>-0.7</v>
+        <v>5.5</v>
       </c>
       <c r="N14" t="n">
-        <v>4.3</v>
+        <v>6.4</v>
       </c>
       <c r="O14" t="n">
-        <v>8.7397676442205</v>
+        <v>9.28238857536596</v>
       </c>
       <c r="P14" t="n">
-        <v>8.9</v>
+        <v>10.3</v>
       </c>
       <c r="Q14" t="n">
-        <v>28.2</v>
+        <v>25</v>
       </c>
       <c r="R14" t="n">
-        <v>-61.1702127659574</v>
+        <v>9.71128608923885</v>
       </c>
       <c r="S14" t="n">
         <v>9.42</v>
@@ -1536,59 +1777,59 @@
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>2017年05月</t>
+          <t>2017年04月</t>
         </is>
       </c>
       <c r="B15" t="n">
-        <v>-2.7</v>
+        <v>8.5</v>
       </c>
       <c r="C15" t="n">
-        <v>-56.7</v>
+        <v>-55.8</v>
       </c>
       <c r="D15" t="n">
-        <v>15.3</v>
+        <v>14.7</v>
       </c>
       <c r="E15" t="n">
-        <v>12.2448979591837</v>
+        <v>12.9716981132075</v>
       </c>
       <c r="F15" t="n">
-        <v>29</v>
+        <v>508.4</v>
       </c>
       <c r="G15" t="n">
-        <v>21.7</v>
+        <v>15.1</v>
       </c>
       <c r="H15" t="n">
-        <v>21.7</v>
+        <v>15.1</v>
       </c>
       <c r="I15" t="n">
         <v>35.9</v>
       </c>
       <c r="J15" t="n">
-        <v>25.2</v>
+        <v>22.6</v>
       </c>
       <c r="K15" t="n">
-        <v>22.3</v>
+        <v>21</v>
       </c>
       <c r="L15" t="n">
-        <v>3.7</v>
+        <v>1.9</v>
       </c>
       <c r="M15" t="n">
-        <v>-0.7</v>
+        <v>0.4</v>
       </c>
       <c r="N15" t="n">
-        <v>5.4</v>
+        <v>6.7</v>
       </c>
       <c r="O15" t="n">
-        <v>11.3005071878638</v>
+        <v>8.916476574810151</v>
       </c>
       <c r="P15" t="n">
-        <v>10.3</v>
+        <v>8.9</v>
       </c>
       <c r="Q15" t="n">
-        <v>36.7</v>
+        <v>23.3</v>
       </c>
       <c r="R15" t="n">
-        <v>-68.11846689895469</v>
+        <v>-3.76811594202898</v>
       </c>
       <c r="S15" t="n">
         <v>12.1</v>
@@ -1597,59 +1838,59 @@
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>2017年06月</t>
+          <t>2017年05月</t>
         </is>
       </c>
       <c r="B16" t="n">
-        <v>1.8</v>
+        <v>0.1</v>
       </c>
       <c r="C16" t="n">
-        <v>-54.37</v>
+        <v>-56.7</v>
       </c>
       <c r="D16" t="n">
-        <v>15.8</v>
+        <v>15.3</v>
       </c>
       <c r="E16" t="n">
-        <v>13.3786848072562</v>
+        <v>11.368909512761</v>
       </c>
       <c r="F16" t="n">
-        <v>508.4</v>
+        <v>45.4</v>
       </c>
       <c r="G16" t="n">
-        <v>22.3</v>
+        <v>21.7</v>
       </c>
       <c r="H16" t="n">
-        <v>22.3</v>
+        <v>21.7</v>
       </c>
       <c r="I16" t="n">
         <v>31.1</v>
       </c>
       <c r="J16" t="n">
-        <v>6.1</v>
+        <v>25.2</v>
       </c>
       <c r="K16" t="n">
-        <v>24.8</v>
+        <v>22.3</v>
       </c>
       <c r="L16" t="n">
-        <v>8.800000000000001</v>
+        <v>3.7</v>
       </c>
       <c r="M16" t="n">
-        <v>4.6</v>
+        <v>-0.7</v>
       </c>
       <c r="N16" t="n">
-        <v>4.8</v>
+        <v>4.3</v>
       </c>
       <c r="O16" t="n">
-        <v>12.1203252898821</v>
+        <v>8.7397676442205</v>
       </c>
       <c r="P16" t="n">
-        <v>12.2</v>
+        <v>10.3</v>
       </c>
       <c r="Q16" t="n">
-        <v>25</v>
+        <v>21</v>
       </c>
       <c r="R16" t="n">
-        <v>-28.3196239717979</v>
+        <v>-61.1702127659574</v>
       </c>
       <c r="S16" t="n">
         <v>13.6</v>
@@ -1658,59 +1899,59 @@
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>2017年07月</t>
+          <t>2017年06月</t>
         </is>
       </c>
       <c r="B17" t="n">
-        <v>6.1</v>
+        <v>-2.7</v>
       </c>
       <c r="C17" t="n">
-        <v>-54.68</v>
+        <v>-54.37</v>
       </c>
       <c r="D17" t="n">
-        <v>17</v>
+        <v>15.8</v>
       </c>
       <c r="E17" t="n">
-        <v>10.8647450110865</v>
+        <v>12.1004566210046</v>
       </c>
       <c r="F17" t="n">
-        <v>45.4</v>
+        <v>87.2</v>
       </c>
       <c r="G17" t="n">
-        <v>14.1</v>
+        <v>22.3</v>
       </c>
       <c r="H17" t="n">
-        <v>14.1</v>
+        <v>22.3</v>
       </c>
       <c r="I17" t="n">
         <v>29.8</v>
       </c>
       <c r="J17" t="n">
-        <v>7</v>
+        <v>6.1</v>
       </c>
       <c r="K17" t="n">
-        <v>25.6</v>
+        <v>24.8</v>
       </c>
       <c r="L17" t="n">
-        <v>11.2</v>
+        <v>8.800000000000001</v>
       </c>
       <c r="M17" t="n">
-        <v>4.3</v>
+        <v>-0.7</v>
       </c>
       <c r="N17" t="n">
-        <v>4.9</v>
+        <v>5.4</v>
       </c>
       <c r="O17" t="n">
-        <v>12.8189043304045</v>
+        <v>11.3005071878638</v>
       </c>
       <c r="P17" t="n">
-        <v>14.1</v>
+        <v>12.2</v>
       </c>
       <c r="Q17" t="n">
-        <v>23.3</v>
+        <v>19.6</v>
       </c>
       <c r="R17" t="n">
-        <v>-57.9439252336449</v>
+        <v>-68.11846689895469</v>
       </c>
       <c r="S17" t="n">
         <v>15.9</v>
@@ -1719,59 +1960,59 @@
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>2017年08月</t>
+          <t>2017年07月</t>
         </is>
       </c>
       <c r="B18" t="n">
-        <v>6.5</v>
+        <v>1.8</v>
       </c>
       <c r="C18" t="n">
-        <v>1.52</v>
+        <v>-54.68</v>
       </c>
       <c r="D18" t="n">
-        <v>17.2</v>
+        <v>17</v>
       </c>
       <c r="E18" t="n">
-        <v>10.4575163398693</v>
+        <v>11.5646258503401</v>
       </c>
       <c r="F18" t="n">
-        <v>87.2</v>
+        <v>93.2</v>
       </c>
       <c r="G18" t="n">
-        <v>15.1</v>
+        <v>14.1</v>
       </c>
       <c r="H18" t="n">
-        <v>15.1</v>
+        <v>14.1</v>
       </c>
       <c r="I18" t="n">
         <v>34.8</v>
       </c>
       <c r="J18" t="n">
-        <v>12.8</v>
+        <v>7</v>
       </c>
       <c r="K18" t="n">
-        <v>24.2</v>
+        <v>25.6</v>
       </c>
       <c r="L18" t="n">
-        <v>10</v>
+        <v>11.2</v>
       </c>
       <c r="M18" t="n">
-        <v>1.6</v>
+        <v>4.6</v>
       </c>
       <c r="N18" t="n">
-        <v>4.7</v>
+        <v>4.8</v>
       </c>
       <c r="O18" t="n">
-        <v>15.4721560211896</v>
+        <v>12.1203252898821</v>
       </c>
       <c r="P18" t="n">
-        <v>12.1</v>
+        <v>14.1</v>
       </c>
       <c r="Q18" t="n">
-        <v>21</v>
+        <v>22.1</v>
       </c>
       <c r="R18" t="n">
-        <v>-10.8333333333334</v>
+        <v>-28.3196239717979</v>
       </c>
       <c r="S18" t="n">
         <v>16.63</v>
@@ -1780,59 +2021,59 @@
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t>2017年09月</t>
+          <t>2017年08月</t>
         </is>
       </c>
       <c r="B19" t="n">
-        <v>7</v>
+        <v>6.1</v>
       </c>
       <c r="C19" t="n">
-        <v>6.34</v>
+        <v>1.52</v>
       </c>
       <c r="D19" t="n">
-        <v>17.9</v>
+        <v>17.2</v>
       </c>
       <c r="E19" t="n">
-        <v>10.1511879049676</v>
+        <v>12.2448979591837</v>
       </c>
       <c r="F19" t="n">
-        <v>93.2</v>
+        <v>79.90000000000001</v>
       </c>
       <c r="G19" t="n">
-        <v>20.4</v>
+        <v>15.1</v>
       </c>
       <c r="H19" t="n">
-        <v>20.5</v>
+        <v>15.1</v>
       </c>
       <c r="I19" t="n">
         <v>41.4</v>
       </c>
       <c r="J19" t="n">
-        <v>16.1</v>
+        <v>12.8</v>
       </c>
       <c r="K19" t="n">
-        <v>21.5</v>
+        <v>24.2</v>
       </c>
       <c r="L19" t="n">
-        <v>9.800000000000001</v>
+        <v>10</v>
       </c>
       <c r="M19" t="n">
-        <v>-0.6</v>
+        <v>4.3</v>
       </c>
       <c r="N19" t="n">
-        <v>4.8</v>
+        <v>4.9</v>
       </c>
       <c r="O19" t="n">
-        <v>14.1935797901369</v>
+        <v>12.8189043304045</v>
       </c>
       <c r="P19" t="n">
-        <v>13.8</v>
+        <v>12.1</v>
       </c>
       <c r="Q19" t="n">
-        <v>19.6</v>
+        <v>23.3</v>
       </c>
       <c r="R19" t="n">
-        <v>-3.61596009975065</v>
+        <v>-57.9439252336449</v>
       </c>
       <c r="S19" t="n">
         <v>18.18</v>
@@ -1841,59 +2082,59 @@
     <row r="20">
       <c r="A20" t="inlineStr">
         <is>
-          <t>2017年10月</t>
+          <t>2017年09月</t>
         </is>
       </c>
       <c r="B20" t="n">
-        <v>8</v>
+        <v>6.5</v>
       </c>
       <c r="C20" t="n">
-        <v>28.07</v>
+        <v>6.34</v>
       </c>
       <c r="D20" t="n">
-        <v>19.3</v>
+        <v>17.9</v>
       </c>
       <c r="E20" t="n">
-        <v>11.8279569892473</v>
+        <v>13.3786848072562</v>
       </c>
       <c r="F20" t="n">
-        <v>79.90000000000001</v>
+        <v>95.3</v>
       </c>
       <c r="G20" t="n">
-        <v>17.7</v>
+        <v>20.4</v>
       </c>
       <c r="H20" t="n">
-        <v>17.8</v>
+        <v>20.5</v>
       </c>
       <c r="I20" t="n">
         <v>42.3</v>
       </c>
       <c r="J20" t="n">
-        <v>13.6</v>
+        <v>16.1</v>
       </c>
       <c r="K20" t="n">
-        <v>20.6322</v>
+        <v>21.5</v>
       </c>
       <c r="L20" t="n">
-        <v>11.5635</v>
+        <v>9.800000000000001</v>
       </c>
       <c r="M20" t="n">
-        <v>-0.5</v>
+        <v>1.6</v>
       </c>
       <c r="N20" t="n">
-        <v>5.3</v>
+        <v>4.7</v>
       </c>
       <c r="O20" t="n">
-        <v>13.2290024725311</v>
+        <v>15.4721560211896</v>
       </c>
       <c r="P20" t="n">
-        <v>12.7</v>
+        <v>13.8</v>
       </c>
       <c r="Q20" t="n">
-        <v>22.1</v>
+        <v>24.3</v>
       </c>
       <c r="R20" t="n">
-        <v>10.7228915662651</v>
+        <v>-10.8333333333334</v>
       </c>
       <c r="S20" t="n">
         <v>19.16</v>
@@ -1902,59 +2143,59 @@
     <row r="21">
       <c r="A21" t="inlineStr">
         <is>
-          <t>2017年11月</t>
+          <t>2017年10月</t>
         </is>
       </c>
       <c r="B21" t="n">
-        <v>7.1</v>
+        <v>7</v>
       </c>
       <c r="C21" t="n">
-        <v>19.701247</v>
+        <v>28.07</v>
       </c>
       <c r="D21" t="n">
-        <v>19.7</v>
+        <v>19.3</v>
       </c>
       <c r="E21" t="n">
-        <v>15.7563025210084</v>
+        <v>10.8647450110865</v>
       </c>
       <c r="F21" t="n">
-        <v>95.3</v>
+        <v>83</v>
       </c>
       <c r="G21" t="n">
-        <v>12.5</v>
+        <v>17.7</v>
       </c>
       <c r="H21" t="n">
-        <v>12.6</v>
+        <v>17.8</v>
       </c>
       <c r="I21" t="n">
         <v>43.7</v>
       </c>
       <c r="J21" t="n">
-        <v>10.7</v>
+        <v>13.6</v>
       </c>
       <c r="K21" t="n">
-        <v>19.1</v>
+        <v>20.6322</v>
       </c>
       <c r="L21" t="n">
-        <v>11.4</v>
+        <v>11.5635</v>
       </c>
       <c r="M21" t="n">
-        <v>-1.2</v>
+        <v>-0.6</v>
       </c>
       <c r="N21" t="n">
-        <v>5.8</v>
+        <v>4.8</v>
       </c>
       <c r="O21" t="n">
-        <v>13.3200921535406</v>
+        <v>14.1935797901369</v>
       </c>
       <c r="P21" t="n">
-        <v>10.7</v>
+        <v>12.7</v>
       </c>
       <c r="Q21" t="n">
-        <v>23.3</v>
+        <v>24.3</v>
       </c>
       <c r="R21" t="n">
-        <v>-6.27737226277368</v>
+        <v>-3.61596009975065</v>
       </c>
       <c r="S21" t="n">
         <v>18.71</v>
@@ -1963,53 +2204,59 @@
     <row r="22">
       <c r="A22" t="inlineStr">
         <is>
-          <t>2017年12月</t>
-        </is>
-      </c>
-      <c r="B22" t="inlineStr"/>
-      <c r="C22" t="inlineStr"/>
-      <c r="D22" t="inlineStr"/>
+          <t>2017年11月</t>
+        </is>
+      </c>
+      <c r="B22" t="n">
+        <v>8</v>
+      </c>
+      <c r="C22" t="n">
+        <v>19.701247</v>
+      </c>
+      <c r="D22" t="n">
+        <v>19.7</v>
+      </c>
       <c r="E22" t="n">
-        <v>15.2400835073069</v>
+        <v>10.4575163398693</v>
       </c>
       <c r="F22" t="n">
-        <v>83</v>
+        <v>81.09999999999999</v>
       </c>
       <c r="G22" t="n">
-        <v>11.6</v>
+        <v>12.5</v>
       </c>
       <c r="H22" t="n">
-        <v>11.7</v>
+        <v>12.6</v>
       </c>
       <c r="I22" t="n">
         <v>21.7</v>
       </c>
       <c r="J22" t="n">
-        <v>12.7</v>
+        <v>10.7</v>
       </c>
       <c r="K22" t="n">
-        <v>14</v>
+        <v>19.1</v>
       </c>
       <c r="L22" t="n">
-        <v>11.6</v>
+        <v>11.4</v>
       </c>
       <c r="M22" t="n">
-        <v>-1.2</v>
+        <v>-0.5</v>
       </c>
       <c r="N22" t="n">
-        <v>6</v>
+        <v>5.3</v>
       </c>
       <c r="O22" t="n">
-        <v>17.4618301933426</v>
+        <v>13.2290024725311</v>
       </c>
       <c r="P22" t="n">
-        <v>9.800000000000001</v>
+        <v>10.7</v>
       </c>
       <c r="Q22" t="n">
-        <v>24.3</v>
+        <v>23</v>
       </c>
       <c r="R22" t="n">
-        <v>19.0026954177897</v>
+        <v>10.7228915662651</v>
       </c>
       <c r="S22" t="n">
         <v>18.89</v>
@@ -2018,49 +2265,55 @@
     <row r="23">
       <c r="A23" t="inlineStr">
         <is>
-          <t>2018年02月</t>
+          <t>2017年12月</t>
         </is>
       </c>
       <c r="B23" t="n">
-        <v>15.7</v>
-      </c>
-      <c r="C23" t="n">
-        <v>-12.67</v>
-      </c>
+        <v>7.1</v>
+      </c>
+      <c r="C23" t="inlineStr"/>
       <c r="D23" t="inlineStr"/>
       <c r="E23" t="n">
-        <v>16.6666666666667</v>
+        <v>10.1511879049676</v>
       </c>
       <c r="F23" t="n">
-        <v>81.09999999999999</v>
+        <v>60.1</v>
       </c>
       <c r="G23" t="n">
-        <v>13.2</v>
+        <v>11.6</v>
       </c>
       <c r="H23" t="n">
-        <v>13.2</v>
+        <v>11.7</v>
       </c>
       <c r="I23" t="n">
         <v>13.4</v>
       </c>
-      <c r="J23" t="inlineStr"/>
-      <c r="K23" t="inlineStr"/>
-      <c r="L23" t="inlineStr"/>
-      <c r="M23" t="inlineStr"/>
+      <c r="J23" t="n">
+        <v>12.7</v>
+      </c>
+      <c r="K23" t="n">
+        <v>14</v>
+      </c>
+      <c r="L23" t="n">
+        <v>11.6</v>
+      </c>
+      <c r="M23" t="n">
+        <v>-1.2</v>
+      </c>
       <c r="N23" t="n">
-        <v>6.2</v>
+        <v>5.8</v>
       </c>
       <c r="O23" t="n">
-        <v>21.9471260712216</v>
+        <v>13.3200921535406</v>
       </c>
       <c r="P23" t="n">
-        <v>11.4</v>
+        <v>9.800000000000001</v>
       </c>
       <c r="Q23" t="n">
-        <v>24.3</v>
+        <v>22.5</v>
       </c>
       <c r="R23" t="n">
-        <v>71.7703349282296</v>
+        <v>-6.27737226277368</v>
       </c>
       <c r="S23" t="n">
         <v>17.81</v>
@@ -2069,51 +2322,45 @@
     <row r="24">
       <c r="A24" t="inlineStr">
         <is>
-          <t>2018年03月</t>
-        </is>
-      </c>
-      <c r="B24" t="n">
-        <v>9.5</v>
-      </c>
+          <t>2018年02月</t>
+        </is>
+      </c>
+      <c r="B24" t="inlineStr"/>
       <c r="C24" t="n">
-        <v>837.12</v>
-      </c>
-      <c r="D24" t="n">
-        <v>13.4</v>
-      </c>
+        <v>-12.67</v>
+      </c>
+      <c r="D24" t="inlineStr"/>
       <c r="E24" t="n">
-        <v>14.6639511201629</v>
+        <v>11.8279569892473</v>
       </c>
       <c r="F24" t="n">
-        <v>60.1</v>
-      </c>
-      <c r="G24" t="inlineStr"/>
-      <c r="H24" t="inlineStr"/>
+        <v>56.9</v>
+      </c>
+      <c r="G24" t="n">
+        <v>13.2</v>
+      </c>
+      <c r="H24" t="n">
+        <v>13.2</v>
+      </c>
       <c r="I24" t="inlineStr"/>
-      <c r="J24" t="n">
-        <v>25.6</v>
-      </c>
-      <c r="K24" t="n">
-        <v>27.2</v>
-      </c>
-      <c r="L24" t="n">
-        <v>17.3</v>
-      </c>
+      <c r="J24" t="inlineStr"/>
+      <c r="K24" t="inlineStr"/>
+      <c r="L24" t="inlineStr"/>
       <c r="M24" t="n">
-        <v>-2.3</v>
-      </c>
-      <c r="N24" t="inlineStr"/>
+        <v>-1.2</v>
+      </c>
+      <c r="N24" t="n">
+        <v>6</v>
+      </c>
       <c r="O24" t="n">
-        <v>21.5560285837424</v>
+        <v>17.4618301933426</v>
       </c>
       <c r="P24" t="n">
-        <v>11</v>
-      </c>
-      <c r="Q24" t="n">
-        <v>23</v>
-      </c>
+        <v>11.4</v>
+      </c>
+      <c r="Q24" t="inlineStr"/>
       <c r="R24" t="n">
-        <v>11.7469879518072</v>
+        <v>19.0026954177897</v>
       </c>
       <c r="S24" t="n">
         <v>15.63</v>
@@ -2122,59 +2369,51 @@
     <row r="25">
       <c r="A25" t="inlineStr">
         <is>
-          <t>2018年04月</t>
+          <t>2018年03月</t>
         </is>
       </c>
       <c r="B25" t="n">
-        <v>12.1</v>
+        <v>15.7</v>
       </c>
       <c r="C25" t="n">
-        <v>620.74</v>
+        <v>837.12</v>
       </c>
       <c r="D25" t="n">
-        <v>10.9</v>
+        <v>13.4</v>
       </c>
       <c r="E25" t="n">
-        <v>14.4308943089431</v>
-      </c>
-      <c r="F25" t="n">
-        <v>56.9</v>
-      </c>
-      <c r="G25" t="n">
-        <v>0.2</v>
-      </c>
-      <c r="H25" t="n">
-        <v>0.2</v>
-      </c>
+        <v>15.7563025210084</v>
+      </c>
+      <c r="F25" t="inlineStr"/>
+      <c r="G25" t="inlineStr"/>
+      <c r="H25" t="inlineStr"/>
       <c r="I25" t="n">
         <v>1.2</v>
       </c>
       <c r="J25" t="n">
-        <v>19.9</v>
+        <v>25.6</v>
       </c>
       <c r="K25" t="n">
-        <v>9.300000000000001</v>
+        <v>27.2</v>
       </c>
       <c r="L25" t="n">
-        <v>16.1</v>
-      </c>
-      <c r="M25" t="n">
-        <v>-2.3</v>
-      </c>
+        <v>17.3</v>
+      </c>
+      <c r="M25" t="inlineStr"/>
       <c r="N25" t="n">
-        <v>0.6</v>
+        <v>6.2</v>
       </c>
       <c r="O25" t="n">
-        <v>24.4505412578654</v>
+        <v>21.9471260712216</v>
       </c>
       <c r="P25" t="n">
-        <v>10.5</v>
+        <v>11</v>
       </c>
       <c r="Q25" t="n">
-        <v>22.5</v>
+        <v>7.7</v>
       </c>
       <c r="R25" t="n">
-        <v>142.465753424658</v>
+        <v>71.7703349282296</v>
       </c>
       <c r="S25" t="n">
         <v>16.45</v>
@@ -2183,53 +2422,57 @@
     <row r="26">
       <c r="A26" t="inlineStr">
         <is>
-          <t>2018年05月</t>
+          <t>2018年04月</t>
         </is>
       </c>
       <c r="B26" t="n">
-        <v>9.199999999999999</v>
+        <v>9.5</v>
       </c>
       <c r="C26" t="n">
-        <v>602.97</v>
+        <v>620.74</v>
       </c>
       <c r="D26" t="n">
-        <v>11.6</v>
+        <v>10.9</v>
       </c>
       <c r="E26" t="n">
-        <v>14.7474747474747</v>
-      </c>
-      <c r="F26" t="inlineStr"/>
+        <v>15.2400835073069</v>
+      </c>
+      <c r="F26" t="n">
+        <v>3.7</v>
+      </c>
       <c r="G26" t="n">
-        <v>-14.2</v>
+        <v>0.2</v>
       </c>
       <c r="H26" t="n">
-        <v>-14.2</v>
+        <v>0.2</v>
       </c>
       <c r="I26" t="n">
         <v>2.8</v>
       </c>
       <c r="J26" t="n">
-        <v>14</v>
+        <v>19.9</v>
       </c>
       <c r="K26" t="n">
-        <v>3.9</v>
+        <v>9.300000000000001</v>
       </c>
       <c r="L26" t="n">
-        <v>12.3</v>
+        <v>16.1</v>
       </c>
       <c r="M26" t="n">
-        <v>-2.4</v>
-      </c>
-      <c r="N26" t="n">
-        <v>2.8</v>
-      </c>
+        <v>-2.3</v>
+      </c>
+      <c r="N26" t="inlineStr"/>
       <c r="O26" t="n">
-        <v>22.0523845005893</v>
-      </c>
-      <c r="P26" t="inlineStr"/>
-      <c r="Q26" t="inlineStr"/>
+        <v>21.5560285837424</v>
+      </c>
+      <c r="P26" t="n">
+        <v>10.5</v>
+      </c>
+      <c r="Q26" t="n">
+        <v>11.4</v>
+      </c>
       <c r="R26" t="n">
-        <v>249.726775956284</v>
+        <v>11.7469879518072</v>
       </c>
       <c r="S26" t="n">
         <v>14.22</v>
@@ -2238,59 +2481,57 @@
     <row r="27">
       <c r="A27" t="inlineStr">
         <is>
-          <t>2018年06月</t>
+          <t>2018年05月</t>
         </is>
       </c>
       <c r="B27" t="n">
-        <v>2.5</v>
+        <v>12.1</v>
       </c>
       <c r="C27" t="n">
-        <v>556.77</v>
+        <v>602.97</v>
       </c>
       <c r="D27" t="n">
-        <v>10.3</v>
+        <v>11.6</v>
       </c>
       <c r="E27" t="n">
-        <v>14.6</v>
+        <v>16.6666666666667</v>
       </c>
       <c r="F27" t="n">
-        <v>3.7</v>
+        <v>40</v>
       </c>
       <c r="G27" t="n">
-        <v>-4.9</v>
+        <v>-14.2</v>
       </c>
       <c r="H27" t="n">
-        <v>-4.9</v>
+        <v>-14.2</v>
       </c>
       <c r="I27" t="n">
         <v>0.3</v>
       </c>
       <c r="J27" t="n">
+        <v>14</v>
+      </c>
+      <c r="K27" t="n">
+        <v>3.9</v>
+      </c>
+      <c r="L27" t="n">
+        <v>12.3</v>
+      </c>
+      <c r="M27" t="n">
+        <v>-2.3</v>
+      </c>
+      <c r="N27" t="n">
+        <v>0.6</v>
+      </c>
+      <c r="O27" t="n">
+        <v>24.4505412578654</v>
+      </c>
+      <c r="P27" t="inlineStr"/>
+      <c r="Q27" t="n">
         <v>11.9</v>
       </c>
-      <c r="K27" t="n">
-        <v>1</v>
-      </c>
-      <c r="L27" t="n">
-        <v>6.8</v>
-      </c>
-      <c r="M27" t="n">
-        <v>-2.7</v>
-      </c>
-      <c r="N27" t="n">
-        <v>3.8</v>
-      </c>
-      <c r="O27" t="n">
-        <v>20.9389805552569</v>
-      </c>
-      <c r="P27" t="n">
-        <v>2</v>
-      </c>
-      <c r="Q27" t="n">
-        <v>7.7</v>
-      </c>
       <c r="R27" t="n">
-        <v>183.27868852459</v>
+        <v>142.465753424658</v>
       </c>
       <c r="S27" t="n">
         <v>11.3</v>
@@ -2299,59 +2540,59 @@
     <row r="28">
       <c r="A28" t="inlineStr">
         <is>
-          <t>2018年07月</t>
+          <t>2018年06月</t>
         </is>
       </c>
       <c r="B28" t="n">
-        <v>1.2</v>
+        <v>9.199999999999999</v>
       </c>
       <c r="C28" t="n">
-        <v>496.09</v>
+        <v>556.77</v>
       </c>
       <c r="D28" t="n">
-        <v>9.5</v>
+        <v>10.3</v>
       </c>
       <c r="E28" t="n">
-        <v>15.2</v>
+        <v>14.6639511201629</v>
       </c>
       <c r="F28" t="n">
-        <v>40</v>
+        <v>21.1</v>
       </c>
       <c r="G28" t="n">
-        <v>1.6</v>
+        <v>-4.9</v>
       </c>
       <c r="H28" t="n">
-        <v>1.6</v>
+        <v>-4.9</v>
       </c>
       <c r="I28" t="n">
         <v>-2.4</v>
       </c>
       <c r="J28" t="n">
-        <v>5.7</v>
+        <v>11.9</v>
       </c>
       <c r="K28" t="n">
-        <v>-0.3</v>
+        <v>1</v>
       </c>
       <c r="L28" t="n">
-        <v>4.8</v>
+        <v>6.8</v>
       </c>
       <c r="M28" t="n">
-        <v>-2.7</v>
+        <v>-2.4</v>
       </c>
       <c r="N28" t="n">
-        <v>2.1</v>
+        <v>2.8</v>
       </c>
       <c r="O28" t="n">
-        <v>21.865147163333</v>
+        <v>22.0523845005893</v>
       </c>
       <c r="P28" t="n">
-        <v>1.2</v>
+        <v>2</v>
       </c>
       <c r="Q28" t="n">
-        <v>11.4</v>
+        <v>12.9</v>
       </c>
       <c r="R28" t="n">
-        <v>483.703703703704</v>
+        <v>249.726775956284</v>
       </c>
       <c r="S28" t="n">
         <v>9.550000000000001</v>
@@ -2360,59 +2601,59 @@
     <row r="29">
       <c r="A29" t="inlineStr">
         <is>
-          <t>2018年08月</t>
+          <t>2018年07月</t>
         </is>
       </c>
       <c r="B29" t="n">
-        <v>0.5</v>
+        <v>2.5</v>
       </c>
       <c r="C29" t="n">
-        <v>192.24</v>
+        <v>496.09</v>
       </c>
       <c r="D29" t="n">
-        <v>8.199999999999999</v>
+        <v>9.5</v>
       </c>
       <c r="E29" t="n">
-        <v>14.9901380670611</v>
+        <v>14.4308943089431</v>
       </c>
       <c r="F29" t="n">
-        <v>21.1</v>
+        <v>-1.5</v>
       </c>
       <c r="G29" t="n">
-        <v>-3.4</v>
+        <v>1.6</v>
       </c>
       <c r="H29" t="n">
-        <v>-3.4</v>
+        <v>1.6</v>
       </c>
       <c r="I29" t="n">
         <v>-11.7</v>
       </c>
       <c r="J29" t="n">
-        <v>6.2</v>
+        <v>5.7</v>
       </c>
       <c r="K29" t="n">
-        <v>0</v>
+        <v>-0.3</v>
       </c>
       <c r="L29" t="n">
-        <v>4</v>
+        <v>4.8</v>
       </c>
       <c r="M29" t="n">
-        <v>-2.8</v>
+        <v>-2.7</v>
       </c>
       <c r="N29" t="n">
         <v>3.8</v>
       </c>
       <c r="O29" t="n">
-        <v>20.1773725527761</v>
+        <v>20.9389805552569</v>
       </c>
       <c r="P29" t="n">
-        <v>6.1</v>
+        <v>1.2</v>
       </c>
       <c r="Q29" t="n">
-        <v>11.9</v>
+        <v>12.7</v>
       </c>
       <c r="R29" t="n">
-        <v>70.0934579439252</v>
+        <v>183.27868852459</v>
       </c>
       <c r="S29" t="n">
         <v>8.18</v>
@@ -2421,57 +2662,59 @@
     <row r="30">
       <c r="A30" t="inlineStr">
         <is>
-          <t>2018年09月</t>
+          <t>2018年08月</t>
         </is>
       </c>
       <c r="B30" t="n">
-        <v>-0.5</v>
-      </c>
-      <c r="C30" t="inlineStr"/>
+        <v>1.2</v>
+      </c>
+      <c r="C30" t="n">
+        <v>192.24</v>
+      </c>
       <c r="D30" t="n">
-        <v>9.6</v>
+        <v>8.199999999999999</v>
       </c>
       <c r="E30" t="n">
-        <v>15.0980392156863</v>
+        <v>14.7474747474747</v>
       </c>
       <c r="F30" t="n">
-        <v>-1.5</v>
+        <v>-13</v>
       </c>
       <c r="G30" t="n">
-        <v>-6.7</v>
+        <v>-3.4</v>
       </c>
       <c r="H30" t="n">
-        <v>-6.7</v>
+        <v>-3.4</v>
       </c>
       <c r="I30" t="n">
         <v>-19.6</v>
       </c>
       <c r="J30" t="n">
-        <v>6.5</v>
+        <v>6.2</v>
       </c>
       <c r="K30" t="n">
-        <v>1.7</v>
+        <v>0</v>
       </c>
       <c r="L30" t="n">
-        <v>3.9</v>
+        <v>4</v>
       </c>
       <c r="M30" t="n">
         <v>-2.7</v>
       </c>
       <c r="N30" t="n">
-        <v>4.3</v>
+        <v>2.1</v>
       </c>
       <c r="O30" t="n">
-        <v>20.4274957929868</v>
+        <v>21.865147163333</v>
       </c>
       <c r="P30" t="n">
-        <v>6.8</v>
+        <v>6.1</v>
       </c>
       <c r="Q30" t="n">
-        <v>12.9</v>
+        <v>12.7</v>
       </c>
       <c r="R30" t="n">
-        <v>41.1384217335058</v>
+        <v>483.703703703704</v>
       </c>
       <c r="S30" t="n">
         <v>6.98</v>
@@ -2480,59 +2723,57 @@
     <row r="31">
       <c r="A31" t="inlineStr">
         <is>
-          <t>2018年10月</t>
+          <t>2018年09月</t>
         </is>
       </c>
       <c r="B31" t="n">
-        <v>0.4</v>
-      </c>
-      <c r="C31" t="n">
-        <v>125.73</v>
-      </c>
+        <v>0.5</v>
+      </c>
+      <c r="C31" t="inlineStr"/>
       <c r="D31" t="n">
-        <v>9.800000000000001</v>
+        <v>9.6</v>
       </c>
       <c r="E31" t="n">
-        <v>15.1923076923077</v>
+        <v>14.6</v>
       </c>
       <c r="F31" t="n">
-        <v>-13</v>
+        <v>-11.5</v>
       </c>
       <c r="G31" t="n">
-        <v>-2.9</v>
+        <v>-6.7</v>
       </c>
       <c r="H31" t="n">
-        <v>-2.9</v>
+        <v>-6.7</v>
       </c>
       <c r="I31" t="n">
         <v>-24.3</v>
       </c>
       <c r="J31" t="n">
-        <v>4.8</v>
+        <v>6.5</v>
       </c>
       <c r="K31" t="n">
-        <v>1.9</v>
+        <v>1.7</v>
       </c>
       <c r="L31" t="n">
-        <v>3.7</v>
+        <v>3.9</v>
       </c>
       <c r="M31" t="n">
         <v>-2.8</v>
       </c>
       <c r="N31" t="n">
-        <v>4.4</v>
+        <v>3.8</v>
       </c>
       <c r="O31" t="n">
-        <v>20.4804322368036</v>
+        <v>20.1773725527761</v>
       </c>
       <c r="P31" t="n">
-        <v>7.2</v>
+        <v>6.8</v>
       </c>
       <c r="Q31" t="n">
-        <v>12.7</v>
+        <v>12.9</v>
       </c>
       <c r="R31" t="n">
-        <v>49.183895538629</v>
+        <v>70.0934579439252</v>
       </c>
       <c r="S31" t="n">
         <v>5.65</v>
@@ -2541,59 +2782,59 @@
     <row r="32">
       <c r="A32" t="inlineStr">
         <is>
-          <t>2018年11月</t>
+          <t>2018年10月</t>
         </is>
       </c>
       <c r="B32" t="n">
-        <v>3.3</v>
+        <v>-0.5</v>
       </c>
       <c r="C32" t="n">
-        <v>117.298378</v>
+        <v>125.73</v>
       </c>
       <c r="D32" t="n">
-        <v>9.199999999999999</v>
+        <v>9.800000000000001</v>
       </c>
       <c r="E32" t="n">
-        <v>8.71143375680581</v>
+        <v>15.2</v>
       </c>
       <c r="F32" t="n">
-        <v>-11.5</v>
+        <v>-10.4</v>
       </c>
       <c r="G32" t="n">
-        <v>6.9</v>
+        <v>-2.9</v>
       </c>
       <c r="H32" t="n">
-        <v>6.9</v>
+        <v>-2.9</v>
       </c>
       <c r="I32" t="n">
         <v>-27.5</v>
       </c>
       <c r="J32" t="n">
-        <v>5.6</v>
+        <v>4.8</v>
       </c>
       <c r="K32" t="n">
-        <v>4</v>
+        <v>1.9</v>
       </c>
       <c r="L32" t="n">
-        <v>5.3</v>
+        <v>3.7</v>
       </c>
       <c r="M32" t="n">
         <v>-2.7</v>
       </c>
       <c r="N32" t="n">
-        <v>4.1</v>
+        <v>4.3</v>
       </c>
       <c r="O32" t="n">
-        <v>19.9480913576423</v>
+        <v>20.4274957929868</v>
       </c>
       <c r="P32" t="n">
-        <v>9.300000000000001</v>
+        <v>7.2</v>
       </c>
       <c r="Q32" t="n">
-        <v>12.7</v>
+        <v>12.3</v>
       </c>
       <c r="R32" t="n">
-        <v>100.311526479751</v>
+        <v>41.1384217335058</v>
       </c>
       <c r="S32" t="n">
         <v>6.06</v>
@@ -2602,59 +2843,59 @@
     <row r="33">
       <c r="A33" t="inlineStr">
         <is>
-          <t>2018年12月</t>
+          <t>2018年11月</t>
         </is>
       </c>
       <c r="B33" t="n">
-        <v>4</v>
+        <v>0.4</v>
       </c>
       <c r="C33" t="n">
-        <v>106.13</v>
+        <v>117.298378</v>
       </c>
       <c r="D33" t="n">
-        <v>8.699999999999999</v>
+        <v>9.199999999999999</v>
       </c>
       <c r="E33" t="n">
-        <v>11.5942028985507</v>
+        <v>14.9901380670611</v>
       </c>
       <c r="F33" t="n">
-        <v>-10.4</v>
+        <v>-8.9</v>
       </c>
       <c r="G33" t="n">
-        <v>10.4</v>
+        <v>6.9</v>
       </c>
       <c r="H33" t="n">
-        <v>10.5</v>
+        <v>6.9</v>
       </c>
       <c r="I33" t="n">
         <v>-28.1</v>
       </c>
       <c r="J33" t="n">
-        <v>3.8</v>
+        <v>5.6</v>
       </c>
       <c r="K33" t="n">
-        <v>5.5</v>
+        <v>4</v>
       </c>
       <c r="L33" t="n">
-        <v>6.2</v>
+        <v>5.3</v>
       </c>
       <c r="M33" t="n">
-        <v>-2.4</v>
+        <v>-2.8</v>
       </c>
       <c r="N33" t="n">
-        <v>5</v>
+        <v>4.4</v>
       </c>
       <c r="O33" t="n">
-        <v>18.8407520694359</v>
+        <v>20.4804322368036</v>
       </c>
       <c r="P33" t="n">
-        <v>11.1</v>
+        <v>9.300000000000001</v>
       </c>
       <c r="Q33" t="n">
-        <v>12.9</v>
+        <v>13.4</v>
       </c>
       <c r="R33" t="n">
-        <v>72.0271800679502</v>
+        <v>49.183895538629</v>
       </c>
       <c r="S33" t="n">
         <v>4.85</v>
@@ -2663,59 +2904,59 @@
     <row r="34">
       <c r="A34" t="inlineStr">
         <is>
-          <t>2019年02月</t>
+          <t>2018年12月</t>
         </is>
       </c>
       <c r="B34" t="n">
-        <v>1.8</v>
+        <v>3.3</v>
       </c>
       <c r="C34" t="n">
-        <v>124.5</v>
+        <v>106.13</v>
       </c>
       <c r="D34" t="n">
-        <v>9.4</v>
+        <v>8.699999999999999</v>
       </c>
       <c r="E34" t="n">
-        <v>11.6071428571429</v>
+        <v>15.0980392156863</v>
       </c>
       <c r="F34" t="n">
-        <v>-8.9</v>
+        <v>-7.5</v>
       </c>
       <c r="G34" t="n">
-        <v>12.7</v>
+        <v>10.4</v>
       </c>
       <c r="H34" t="n">
-        <v>12.7</v>
+        <v>10.5</v>
       </c>
       <c r="I34" t="n">
         <v>-14.5</v>
       </c>
       <c r="J34" t="n">
-        <v>2.9</v>
+        <v>3.8</v>
       </c>
       <c r="K34" t="n">
-        <v>1.8</v>
+        <v>5.5</v>
       </c>
       <c r="L34" t="n">
-        <v>5.8</v>
+        <v>6.2</v>
       </c>
       <c r="M34" t="n">
-        <v>-2</v>
+        <v>-2.7</v>
       </c>
       <c r="N34" t="n">
-        <v>5.2</v>
+        <v>4.1</v>
       </c>
       <c r="O34" t="n">
-        <v>12.6248518221169</v>
+        <v>19.9480913576423</v>
       </c>
       <c r="P34" t="n">
-        <v>11.2</v>
+        <v>11.1</v>
       </c>
       <c r="Q34" t="n">
-        <v>12.3</v>
+        <v>14.1</v>
       </c>
       <c r="R34" t="n">
-        <v>76.4623955431755</v>
+        <v>100.311526479751</v>
       </c>
       <c r="S34" t="n">
         <v>3.87</v>
@@ -2724,59 +2965,59 @@
     <row r="35">
       <c r="A35" t="inlineStr">
         <is>
-          <t>2019年03月</t>
+          <t>2019年02月</t>
         </is>
       </c>
       <c r="B35" t="n">
-        <v>-1.5</v>
+        <v>4</v>
       </c>
       <c r="C35" t="n">
-        <v>-99.42</v>
+        <v>124.5</v>
       </c>
       <c r="D35" t="n">
-        <v>-1.9</v>
+        <v>9.4</v>
       </c>
       <c r="E35" t="n">
-        <v>11.9005328596803</v>
+        <v>15.1923076923077</v>
       </c>
       <c r="F35" t="n">
-        <v>-7.5</v>
+        <v>-10.6</v>
       </c>
       <c r="G35" t="n">
-        <v>8.199999999999999</v>
+        <v>12.7</v>
       </c>
       <c r="H35" t="n">
-        <v>8.199999999999999</v>
+        <v>12.7</v>
       </c>
       <c r="I35" t="n">
         <v>-14.6</v>
       </c>
       <c r="J35" t="n">
-        <v>-2.6</v>
+        <v>2.9</v>
       </c>
       <c r="K35" t="n">
-        <v>0.7</v>
+        <v>1.8</v>
       </c>
       <c r="L35" t="n">
-        <v>5.7</v>
+        <v>5.8</v>
       </c>
       <c r="M35" t="n">
-        <v>-6.3</v>
+        <v>-2.4</v>
       </c>
       <c r="N35" t="n">
-        <v>6.1</v>
+        <v>5</v>
       </c>
       <c r="O35" t="n">
-        <v>15.2460046481383</v>
+        <v>18.8407520694359</v>
       </c>
       <c r="P35" t="n">
-        <v>12.5</v>
+        <v>11.2</v>
       </c>
       <c r="Q35" t="n">
-        <v>13.4</v>
+        <v>14.3</v>
       </c>
       <c r="R35" t="n">
-        <v>26.9541778975741</v>
+        <v>72.0271800679502</v>
       </c>
       <c r="S35" t="n">
         <v>3.47</v>
@@ -2785,59 +3026,59 @@
     <row r="36">
       <c r="A36" t="inlineStr">
         <is>
-          <t>2019年04月</t>
+          <t>2019年03月</t>
         </is>
       </c>
       <c r="B36" t="n">
-        <v>-0.5</v>
+        <v>1.8</v>
       </c>
       <c r="C36" t="n">
-        <v>-95.27</v>
+        <v>-99.42</v>
       </c>
       <c r="D36" t="n">
-        <v>2.8</v>
+        <v>-1.9</v>
       </c>
       <c r="E36" t="n">
-        <v>13.6767317939609</v>
+        <v>8.71143375680581</v>
       </c>
       <c r="F36" t="n">
-        <v>-10.6</v>
+        <v>-49.3</v>
       </c>
       <c r="G36" t="n">
-        <v>22.6</v>
+        <v>8.199999999999999</v>
       </c>
       <c r="H36" t="n">
-        <v>22.6</v>
+        <v>8.199999999999999</v>
       </c>
       <c r="I36" t="n">
         <v>-2.4</v>
       </c>
       <c r="J36" t="n">
-        <v>-15.3</v>
+        <v>-2.6</v>
       </c>
       <c r="K36" t="n">
-        <v>5.1</v>
+        <v>0.7</v>
       </c>
       <c r="L36" t="n">
-        <v>1.6</v>
+        <v>5.7</v>
       </c>
       <c r="M36" t="n">
-        <v>-6.5</v>
+        <v>-2</v>
       </c>
       <c r="N36" t="n">
-        <v>4.1</v>
+        <v>5.2</v>
       </c>
       <c r="O36" t="n">
-        <v>14.2845723391766</v>
+        <v>12.6248518221169</v>
       </c>
       <c r="P36" t="n">
-        <v>14</v>
+        <v>12.5</v>
       </c>
       <c r="Q36" t="n">
-        <v>14.1</v>
+        <v>11.9</v>
       </c>
       <c r="R36" t="n">
-        <v>85.3107344632768</v>
+        <v>76.4623955431755</v>
       </c>
       <c r="S36" t="n">
         <v>3.23</v>
@@ -2846,59 +3087,59 @@
     <row r="37">
       <c r="A37" t="inlineStr">
         <is>
-          <t>2019年05月</t>
+          <t>2019年04月</t>
         </is>
       </c>
       <c r="B37" t="n">
-        <v>1.4</v>
+        <v>-1.5</v>
       </c>
       <c r="C37" t="n">
-        <v>-93.724118</v>
+        <v>-95.27</v>
       </c>
       <c r="D37" t="n">
-        <v>-2.8</v>
+        <v>2.8</v>
       </c>
       <c r="E37" t="n">
-        <v>13.2042253521127</v>
+        <v>11.5942028985507</v>
       </c>
       <c r="F37" t="n">
-        <v>-49.3</v>
+        <v>-72.3</v>
       </c>
       <c r="G37" t="n">
-        <v>20.3</v>
+        <v>22.6</v>
       </c>
       <c r="H37" t="n">
-        <v>20.3</v>
+        <v>22.6</v>
       </c>
       <c r="I37" t="n">
         <v>-5.7</v>
       </c>
       <c r="J37" t="n">
-        <v>-13.9</v>
+        <v>-15.3</v>
       </c>
       <c r="K37" t="n">
-        <v>6.3202</v>
+        <v>5.1</v>
       </c>
       <c r="L37" t="n">
-        <v>1.8162</v>
+        <v>1.6</v>
       </c>
       <c r="M37" t="n">
         <v>-6.3</v>
       </c>
       <c r="N37" t="n">
-        <v>4.9</v>
+        <v>6.1</v>
       </c>
       <c r="O37" t="n">
-        <v>13.5956367273729</v>
+        <v>15.2460046481383</v>
       </c>
       <c r="P37" t="n">
-        <v>15.8</v>
+        <v>14</v>
       </c>
       <c r="Q37" t="n">
-        <v>14.3</v>
+        <v>11.5</v>
       </c>
       <c r="R37" t="n">
-        <v>128.59375</v>
+        <v>26.9541778975741</v>
       </c>
       <c r="S37" t="n">
         <v>3.41</v>
@@ -2907,59 +3148,59 @@
     <row r="38">
       <c r="A38" t="inlineStr">
         <is>
-          <t>2019年06月</t>
+          <t>2019年05月</t>
         </is>
       </c>
       <c r="B38" t="n">
-        <v>5.4</v>
+        <v>-0.5</v>
       </c>
       <c r="C38" t="n">
-        <v>-91.52</v>
+        <v>-93.724118</v>
       </c>
       <c r="D38" t="n">
-        <v>-3.4</v>
+        <v>-2.8</v>
       </c>
       <c r="E38" t="n">
-        <v>13.2635253054101</v>
+        <v>11.6071428571429</v>
       </c>
       <c r="F38" t="n">
-        <v>-72.3</v>
+        <v>-75.40000000000001</v>
       </c>
       <c r="G38" t="n">
-        <v>9.699999999999999</v>
+        <v>20.3</v>
       </c>
       <c r="H38" t="n">
-        <v>9.699999999999999</v>
+        <v>20.3</v>
       </c>
       <c r="I38" t="n">
         <v>-13.2</v>
       </c>
       <c r="J38" t="n">
-        <v>-10.8</v>
+        <v>-13.9</v>
       </c>
       <c r="K38" t="n">
-        <v>6.1</v>
+        <v>6.3202</v>
       </c>
       <c r="L38" t="n">
-        <v>3.7</v>
+        <v>1.8162</v>
       </c>
       <c r="M38" t="n">
-        <v>-6.1</v>
+        <v>-6.5</v>
       </c>
       <c r="N38" t="n">
-        <v>6</v>
+        <v>4.1</v>
       </c>
       <c r="O38" t="n">
-        <v>17.6720920430532</v>
+        <v>14.2845723391766</v>
       </c>
       <c r="P38" t="n">
-        <v>25.7</v>
+        <v>15.8</v>
       </c>
       <c r="Q38" t="n">
-        <v>11.9</v>
+        <v>13.7</v>
       </c>
       <c r="R38" t="n">
-        <v>67.7083333333334</v>
+        <v>85.3107344632768</v>
       </c>
       <c r="S38" t="n">
         <v>3.89</v>
@@ -2968,59 +3209,59 @@
     <row r="39">
       <c r="A39" t="inlineStr">
         <is>
-          <t>2019年07月</t>
+          <t>2019年06月</t>
         </is>
       </c>
       <c r="B39" t="n">
-        <v>-0.8</v>
+        <v>1.4</v>
       </c>
       <c r="C39" t="n">
-        <v>-85.48999999999999</v>
+        <v>-91.52</v>
       </c>
       <c r="D39" t="n">
-        <v>-4.1</v>
+        <v>-3.4</v>
       </c>
       <c r="E39" t="n">
-        <v>14.0625</v>
+        <v>11.9005328596803</v>
       </c>
       <c r="F39" t="n">
-        <v>-75.40000000000001</v>
+        <v>-71.3</v>
       </c>
       <c r="G39" t="n">
-        <v>8.800000000000001</v>
+        <v>9.699999999999999</v>
       </c>
       <c r="H39" t="n">
-        <v>8.800000000000001</v>
+        <v>9.699999999999999</v>
       </c>
       <c r="I39" t="n">
         <v>-14.1</v>
       </c>
       <c r="J39" t="n">
-        <v>-8</v>
+        <v>-10.8</v>
       </c>
       <c r="K39" t="n">
-        <v>5.9</v>
+        <v>6.1</v>
       </c>
       <c r="L39" t="n">
-        <v>3.1</v>
+        <v>3.7</v>
       </c>
       <c r="M39" t="n">
-        <v>-5.9</v>
+        <v>-6.3</v>
       </c>
       <c r="N39" t="n">
-        <v>6.7</v>
+        <v>4.9</v>
       </c>
       <c r="O39" t="n">
-        <v>16.449145903584</v>
+        <v>13.5956367273729</v>
       </c>
       <c r="P39" t="n">
-        <v>29.3</v>
+        <v>25.7</v>
       </c>
       <c r="Q39" t="n">
-        <v>11.5</v>
+        <v>13.6</v>
       </c>
       <c r="R39" t="n">
-        <v>4.56852791878179</v>
+        <v>128.59375</v>
       </c>
       <c r="S39" t="n">
         <v>4.15</v>
@@ -3029,59 +3270,59 @@
     <row r="40">
       <c r="A40" t="inlineStr">
         <is>
-          <t>2019年08月</t>
+          <t>2019年07月</t>
         </is>
       </c>
       <c r="B40" t="n">
-        <v>-0.6</v>
+        <v>5.4</v>
       </c>
       <c r="C40" t="n">
-        <v>-62.33</v>
+        <v>-85.48999999999999</v>
       </c>
       <c r="D40" t="n">
-        <v>-4.8</v>
+        <v>-4.1</v>
       </c>
       <c r="E40" t="n">
-        <v>13.5506003430532</v>
+        <v>13.6767317939609</v>
       </c>
       <c r="F40" t="n">
-        <v>-71.3</v>
+        <v>-65.59999999999999</v>
       </c>
       <c r="G40" t="n">
-        <v>5.8</v>
+        <v>8.800000000000001</v>
       </c>
       <c r="H40" t="n">
-        <v>5.8</v>
+        <v>8.800000000000001</v>
       </c>
       <c r="I40" t="n">
         <v>-16</v>
       </c>
       <c r="J40" t="n">
-        <v>-5.9</v>
+        <v>-8</v>
       </c>
       <c r="K40" t="n">
-        <v>5.5</v>
+        <v>5.9</v>
       </c>
       <c r="L40" t="n">
-        <v>1.4</v>
+        <v>3.1</v>
       </c>
       <c r="M40" t="n">
-        <v>-5.4</v>
+        <v>-6.1</v>
       </c>
       <c r="N40" t="n">
-        <v>7.5</v>
+        <v>6</v>
       </c>
       <c r="O40" t="n">
-        <v>16.5530590921439</v>
+        <v>17.6720920430532</v>
       </c>
       <c r="P40" t="n">
-        <v>27.4</v>
+        <v>29.3</v>
       </c>
       <c r="Q40" t="n">
-        <v>13.7</v>
+        <v>15.6</v>
       </c>
       <c r="R40" t="n">
-        <v>24.1758241758242</v>
+        <v>67.7083333333334</v>
       </c>
       <c r="S40" t="n">
         <v>4.79</v>
@@ -3090,59 +3331,59 @@
     <row r="41">
       <c r="A41" t="inlineStr">
         <is>
-          <t>2019年09月</t>
+          <t>2019年08月</t>
         </is>
       </c>
       <c r="B41" t="n">
-        <v>-0.2</v>
+        <v>-0.8</v>
       </c>
       <c r="C41" t="n">
-        <v>-64.86</v>
+        <v>-62.33</v>
       </c>
       <c r="D41" t="n">
-        <v>-6.3</v>
+        <v>-4.8</v>
       </c>
       <c r="E41" t="n">
-        <v>13.7989778534923</v>
+        <v>13.2042253521127</v>
       </c>
       <c r="F41" t="n">
-        <v>-65.59999999999999</v>
+        <v>-59.2</v>
       </c>
       <c r="G41" t="n">
-        <v>6.7</v>
+        <v>5.8</v>
       </c>
       <c r="H41" t="n">
-        <v>6.7</v>
+        <v>5.8</v>
       </c>
       <c r="I41" t="n">
         <v>-16.4</v>
       </c>
       <c r="J41" t="n">
-        <v>-5.1</v>
+        <v>-5.9</v>
       </c>
       <c r="K41" t="n">
-        <v>5.4</v>
+        <v>5.5</v>
       </c>
       <c r="L41" t="n">
-        <v>-0.5</v>
+        <v>1.4</v>
       </c>
       <c r="M41" t="n">
-        <v>-5.25</v>
+        <v>-5.9</v>
       </c>
       <c r="N41" t="n">
-        <v>7</v>
+        <v>6.7</v>
       </c>
       <c r="O41" t="n">
-        <v>19.6717807407158</v>
+        <v>16.449145903584</v>
       </c>
       <c r="P41" t="n">
-        <v>26.6</v>
+        <v>27.4</v>
       </c>
       <c r="Q41" t="n">
-        <v>13.6</v>
+        <v>17</v>
       </c>
       <c r="R41" t="n">
-        <v>30.980751604033</v>
+        <v>4.56852791878179</v>
       </c>
       <c r="S41" t="n">
         <v>4.9748</v>
@@ -3151,59 +3392,59 @@
     <row r="42">
       <c r="A42" t="inlineStr">
         <is>
-          <t>2019年10月</t>
+          <t>2019年09月</t>
         </is>
       </c>
       <c r="B42" t="n">
-        <v>-2.5</v>
+        <v>-0.6</v>
       </c>
       <c r="C42" t="n">
-        <v>-42.81</v>
+        <v>-64.86</v>
       </c>
       <c r="D42" t="n">
-        <v>-5.4</v>
+        <v>-6.3</v>
       </c>
       <c r="E42" t="n">
-        <v>12.0200333889816</v>
+        <v>13.2635253054101</v>
       </c>
       <c r="F42" t="n">
-        <v>-59.2</v>
+        <v>-55.1</v>
       </c>
       <c r="G42" t="n">
-        <v>3.2</v>
+        <v>6.7</v>
       </c>
       <c r="H42" t="n">
-        <v>3.2</v>
+        <v>6.7</v>
       </c>
       <c r="I42" t="n">
         <v>-16.6</v>
       </c>
       <c r="J42" t="n">
-        <v>-3.5</v>
+        <v>-5.1</v>
       </c>
       <c r="K42" t="n">
-        <v>4.4</v>
+        <v>5.4</v>
       </c>
       <c r="L42" t="n">
-        <v>4.4</v>
+        <v>-0.5</v>
       </c>
       <c r="M42" t="n">
-        <v>-4.97</v>
+        <v>-5.4</v>
       </c>
       <c r="N42" t="n">
-        <v>6.76</v>
+        <v>7.5</v>
       </c>
       <c r="O42" t="n">
-        <v>19.324623221254</v>
+        <v>16.5530590921439</v>
       </c>
       <c r="P42" t="n">
-        <v>27.7</v>
+        <v>26.6</v>
       </c>
       <c r="Q42" t="n">
-        <v>15.6</v>
+        <v>16.2</v>
       </c>
       <c r="R42" t="n">
-        <v>18.8183807439824</v>
+        <v>24.1758241758242</v>
       </c>
       <c r="S42" t="n">
         <v>5.38</v>
@@ -3212,59 +3453,59 @@
     <row r="43">
       <c r="A43" t="inlineStr">
         <is>
-          <t>2019年11月</t>
+          <t>2019年10月</t>
         </is>
       </c>
       <c r="B43" t="n">
-        <v>-4.1</v>
+        <v>-0.2</v>
       </c>
       <c r="C43" t="n">
-        <v>-43.39</v>
+        <v>-42.81</v>
       </c>
       <c r="D43" t="n">
         <v>-5.4</v>
       </c>
       <c r="E43" t="n">
-        <v>12.5208681135225</v>
+        <v>14.0625</v>
       </c>
       <c r="F43" t="n">
-        <v>-55.1</v>
+        <v>-51.4</v>
       </c>
       <c r="G43" t="n">
-        <v>-1.4</v>
+        <v>3.2</v>
       </c>
       <c r="H43" t="n">
-        <v>-1.5</v>
+        <v>3.2</v>
       </c>
       <c r="I43" t="n">
         <v>-15.9</v>
       </c>
       <c r="J43" t="n">
-        <v>-3.9</v>
+        <v>-3.5</v>
       </c>
       <c r="K43" t="n">
-        <v>5.7</v>
+        <v>4.4</v>
       </c>
       <c r="L43" t="n">
-        <v>-4.6</v>
+        <v>4.4</v>
       </c>
       <c r="M43" t="n">
-        <v>-4.89</v>
+        <v>-5.25</v>
       </c>
       <c r="N43" t="n">
-        <v>6.8</v>
+        <v>7</v>
       </c>
       <c r="O43" t="n">
-        <v>19.5413798220458</v>
+        <v>19.6717807407158</v>
       </c>
       <c r="P43" t="n">
-        <v>26.6</v>
+        <v>27.7</v>
       </c>
       <c r="Q43" t="n">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="R43" t="n">
-        <v>25.4276827371696</v>
+        <v>30.980751604033</v>
       </c>
       <c r="S43" t="n">
         <v>4.45</v>
@@ -3273,57 +3514,59 @@
     <row r="44">
       <c r="A44" t="inlineStr">
         <is>
-          <t>2019年12月</t>
+          <t>2019年11月</t>
         </is>
       </c>
       <c r="B44" t="n">
-        <v>-3.8</v>
+        <v>-2.5</v>
       </c>
       <c r="C44" t="n">
-        <v>-37.95</v>
-      </c>
-      <c r="D44" t="inlineStr"/>
+        <v>-43.39</v>
+      </c>
+      <c r="D44" t="n">
+        <v>-5.4</v>
+      </c>
       <c r="E44" t="n">
-        <v>10.0649350649351</v>
+        <v>13.5506003430532</v>
       </c>
       <c r="F44" t="n">
-        <v>-51.4</v>
+        <v>-48.8</v>
       </c>
       <c r="G44" t="n">
-        <v>-1.7</v>
+        <v>-1.4</v>
       </c>
       <c r="H44" t="n">
-        <v>-1.7</v>
+        <v>-1.5</v>
       </c>
       <c r="I44" t="n">
         <v>-16.8</v>
       </c>
       <c r="J44" t="n">
-        <v>-3.1</v>
+        <v>-3.9</v>
       </c>
       <c r="K44" t="n">
-        <v>5.2</v>
+        <v>5.7</v>
       </c>
       <c r="L44" t="n">
-        <v>-6.6</v>
+        <v>-4.6</v>
       </c>
       <c r="M44" t="n">
-        <v>-4.9</v>
+        <v>-4.97</v>
       </c>
       <c r="N44" t="n">
-        <v>6.7</v>
+        <v>6.76</v>
       </c>
       <c r="O44" t="n">
-        <v>16.7714716672468</v>
+        <v>19.324623221254</v>
       </c>
       <c r="P44" t="n">
-        <v>19.9</v>
+        <v>26.6</v>
       </c>
       <c r="Q44" t="n">
-        <v>16.2</v>
+        <v>13.8</v>
       </c>
       <c r="R44" t="n">
-        <v>23.633969716919</v>
+        <v>18.8183807439824</v>
       </c>
       <c r="S44" t="n">
         <v>4.06</v>
@@ -3332,59 +3575,57 @@
     <row r="45">
       <c r="A45" t="inlineStr">
         <is>
-          <t>2020年02月</t>
+          <t>2019年12月</t>
         </is>
       </c>
       <c r="B45" t="n">
-        <v>-38.4</v>
+        <v>-4.1</v>
       </c>
       <c r="C45" t="n">
-        <v>-34.07</v>
-      </c>
-      <c r="D45" t="n">
-        <v>-4.3</v>
-      </c>
+        <v>-37.95</v>
+      </c>
+      <c r="D45" t="inlineStr"/>
       <c r="E45" t="n">
-        <v>10.24</v>
+        <v>13.7989778534923</v>
       </c>
       <c r="F45" t="n">
-        <v>-48.8</v>
+        <v>-46.2</v>
       </c>
       <c r="G45" t="n">
-        <v>-4.8</v>
+        <v>-1.7</v>
       </c>
       <c r="H45" t="n">
-        <v>-4.8</v>
+        <v>-1.7</v>
       </c>
       <c r="I45" t="n">
         <v>-13.2</v>
       </c>
       <c r="J45" t="n">
-        <v>-3</v>
+        <v>-3.1</v>
       </c>
       <c r="K45" t="n">
-        <v>7</v>
+        <v>5.2</v>
       </c>
       <c r="L45" t="n">
-        <v>-7.3</v>
+        <v>-6.6</v>
       </c>
       <c r="M45" t="n">
-        <v>-5.1</v>
+        <v>-4.89</v>
       </c>
       <c r="N45" t="n">
         <v>6.8</v>
       </c>
       <c r="O45" t="n">
-        <v>17.3520699472589</v>
+        <v>19.5413798220458</v>
       </c>
       <c r="P45" t="n">
-        <v>16.3</v>
+        <v>19.9</v>
       </c>
       <c r="Q45" t="n">
-        <v>16</v>
+        <v>12.4</v>
       </c>
       <c r="R45" t="n">
-        <v>-65.2722967640095</v>
+        <v>25.4276827371696</v>
       </c>
       <c r="S45" t="n">
         <v>4.05</v>
@@ -3393,59 +3634,59 @@
     <row r="46">
       <c r="A46" t="inlineStr">
         <is>
-          <t>2020年03月</t>
+          <t>2020年02月</t>
         </is>
       </c>
       <c r="B46" t="n">
-        <v>-25.1</v>
+        <v>-3.8</v>
       </c>
       <c r="C46" t="n">
-        <v>-1306.42</v>
+        <v>-34.07</v>
       </c>
       <c r="D46" t="n">
-        <v>-20.6</v>
+        <v>-4.3</v>
       </c>
       <c r="E46" t="n">
-        <v>10.1587301587302</v>
+        <v>12.0200333889816</v>
       </c>
       <c r="F46" t="n">
-        <v>-46.2</v>
+        <v>-43.2</v>
       </c>
       <c r="G46" t="n">
-        <v>-5</v>
+        <v>-4.8</v>
       </c>
       <c r="H46" t="n">
-        <v>-5</v>
+        <v>-4.8</v>
       </c>
       <c r="I46" t="n">
         <v>-13.2</v>
       </c>
       <c r="J46" t="n">
-        <v>-27.9</v>
+        <v>-3</v>
       </c>
       <c r="K46" t="n">
-        <v>-22</v>
+        <v>7</v>
       </c>
       <c r="L46" t="n">
-        <v>-43.9</v>
+        <v>-7.3</v>
       </c>
       <c r="M46" t="n">
-        <v>-44.8</v>
+        <v>-4.9</v>
       </c>
       <c r="N46" t="n">
-        <v>6.3</v>
+        <v>6.7</v>
       </c>
       <c r="O46" t="n">
-        <v>15.0073005681301</v>
+        <v>16.7714716672468</v>
       </c>
       <c r="P46" t="n">
-        <v>16</v>
+        <v>16.3</v>
       </c>
       <c r="Q46" t="n">
-        <v>13.8</v>
+        <v>12.1</v>
       </c>
       <c r="R46" t="n">
-        <v>-41.4012738853503</v>
+        <v>23.633969716919</v>
       </c>
       <c r="S46" t="n">
         <v>4.44</v>
@@ -3454,59 +3695,59 @@
     <row r="47">
       <c r="A47" t="inlineStr">
         <is>
-          <t>2020年04月</t>
+          <t>2020年03月</t>
         </is>
       </c>
       <c r="B47" t="n">
-        <v>-27.7</v>
+        <v>-38.4</v>
       </c>
       <c r="C47" t="n">
-        <v>323.15</v>
+        <v>-1306.42</v>
       </c>
       <c r="D47" t="n">
-        <v>-20</v>
+        <v>-20.6</v>
       </c>
       <c r="E47" t="n">
-        <v>8.90625</v>
+        <v>12.5208681135225</v>
       </c>
       <c r="F47" t="n">
-        <v>-43.2</v>
+        <v>5.1</v>
       </c>
       <c r="G47" t="n">
-        <v>-53.1</v>
+        <v>-5</v>
       </c>
       <c r="H47" t="n">
-        <v>-53.1</v>
+        <v>-5</v>
       </c>
       <c r="I47" t="n">
         <v>-29</v>
       </c>
       <c r="J47" t="n">
-        <v>-10.7</v>
+        <v>-27.9</v>
       </c>
       <c r="K47" t="n">
-        <v>-6.1</v>
+        <v>-22</v>
       </c>
       <c r="L47" t="n">
-        <v>-29</v>
+        <v>-43.9</v>
       </c>
       <c r="M47" t="n">
-        <v>-52.8</v>
+        <v>-5.1</v>
       </c>
       <c r="N47" t="n">
-        <v>-21.3</v>
+        <v>6.8</v>
       </c>
       <c r="O47" t="n">
-        <v>15.0753046105491</v>
+        <v>17.3520699472589</v>
       </c>
       <c r="P47" t="n">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="Q47" t="n">
-        <v>12.4</v>
+        <v>11.6</v>
       </c>
       <c r="R47" t="n">
-        <v>-62.3475609756098</v>
+        <v>-65.2722967640095</v>
       </c>
       <c r="S47" t="n">
         <v>3.6831</v>
@@ -3515,59 +3756,59 @@
     <row r="48">
       <c r="A48" t="inlineStr">
         <is>
-          <t>2020年05月</t>
+          <t>2020年04月</t>
         </is>
       </c>
       <c r="B48" t="n">
-        <v>-30.7</v>
+        <v>-25.1</v>
       </c>
       <c r="C48" t="n">
-        <v>307.19</v>
+        <v>323.15</v>
       </c>
       <c r="D48" t="n">
-        <v>-14.6</v>
+        <v>-20</v>
       </c>
       <c r="E48" t="n">
-        <v>8.8646967340591</v>
+        <v>10.0649350649351</v>
       </c>
       <c r="F48" t="n">
-        <v>5.1</v>
+        <v>-31.8</v>
       </c>
       <c r="G48" t="n">
-        <v>-46.4</v>
+        <v>-53.1</v>
       </c>
       <c r="H48" t="n">
-        <v>-46.4</v>
+        <v>-53.1</v>
       </c>
       <c r="I48" t="n">
         <v>-27.5</v>
       </c>
       <c r="J48" t="n">
-        <v>-8.699999999999999</v>
+        <v>-10.7</v>
       </c>
       <c r="K48" t="n">
-        <v>-3.7</v>
+        <v>-6.1</v>
       </c>
       <c r="L48" t="n">
-        <v>-26.9</v>
+        <v>-29</v>
       </c>
       <c r="M48" t="n">
-        <v>-52.5</v>
+        <v>-44.8</v>
       </c>
       <c r="N48" t="n">
-        <v>-26.9</v>
+        <v>6.3</v>
       </c>
       <c r="O48" t="n">
-        <v>15.3991423831546</v>
+        <v>15.0073005681301</v>
       </c>
       <c r="P48" t="n">
-        <v>13.8</v>
+        <v>15</v>
       </c>
       <c r="Q48" t="n">
-        <v>12.1</v>
+        <v>22.2</v>
       </c>
       <c r="R48" t="n">
-        <v>-92.6179084073821</v>
+        <v>-41.4012738853503</v>
       </c>
       <c r="S48" t="n">
         <v>4.3439</v>
@@ -3576,59 +3817,59 @@
     <row r="49">
       <c r="A49" t="inlineStr">
         <is>
-          <t>2020年06月</t>
+          <t>2020年05月</t>
         </is>
       </c>
       <c r="B49" t="n">
-        <v>-30.8</v>
+        <v>-27.7</v>
       </c>
       <c r="C49" t="n">
-        <v>243.97</v>
+        <v>307.19</v>
       </c>
       <c r="D49" t="n">
-        <v>-11.8</v>
+        <v>-14.6</v>
       </c>
       <c r="E49" t="n">
-        <v>8.936825885978431</v>
+        <v>10.24</v>
       </c>
       <c r="F49" t="n">
-        <v>-31.8</v>
+        <v>-19</v>
       </c>
       <c r="G49" t="n">
-        <v>-35.3</v>
+        <v>-46.4</v>
       </c>
       <c r="H49" t="n">
-        <v>-35.3</v>
+        <v>-46.4</v>
       </c>
       <c r="I49" t="n">
         <v>-24.4</v>
       </c>
       <c r="J49" t="n">
-        <v>-6.8</v>
+        <v>-8.699999999999999</v>
       </c>
       <c r="K49" t="n">
-        <v>-4.2</v>
+        <v>-3.7</v>
       </c>
       <c r="L49" t="n">
-        <v>-26.6</v>
+        <v>-26.9</v>
       </c>
       <c r="M49" t="n">
-        <v>-50.6</v>
+        <v>-52.8</v>
       </c>
       <c r="N49" t="n">
-        <v>-19.8</v>
+        <v>-21.3</v>
       </c>
       <c r="O49" t="n">
-        <v>12.3565261154788</v>
+        <v>15.0753046105491</v>
       </c>
       <c r="P49" t="n">
-        <v>5.9</v>
+        <v>13.8</v>
       </c>
       <c r="Q49" t="n">
-        <v>11.6</v>
+        <v>23.5</v>
       </c>
       <c r="R49" t="n">
-        <v>-87.2325741890959</v>
+        <v>-62.3475609756098</v>
       </c>
       <c r="S49" t="n">
         <v>3.521</v>
@@ -3637,59 +3878,59 @@
     <row r="50">
       <c r="A50" t="inlineStr">
         <is>
-          <t>2020年07月</t>
+          <t>2020年06月</t>
         </is>
       </c>
       <c r="B50" t="n">
-        <v>-31.2</v>
+        <v>-30.7</v>
       </c>
       <c r="C50" t="n">
-        <v>109.39</v>
+        <v>243.97</v>
       </c>
       <c r="D50" t="n">
-        <v>-9.1</v>
+        <v>-11.8</v>
       </c>
       <c r="E50" t="n">
-        <v>9.58904109589041</v>
+        <v>10.1587301587302</v>
       </c>
       <c r="F50" t="n">
-        <v>-19</v>
+        <v>-14.1</v>
       </c>
       <c r="G50" t="n">
-        <v>-16.6</v>
+        <v>-35.3</v>
       </c>
       <c r="H50" t="n">
-        <v>-16.6</v>
+        <v>-35.3</v>
       </c>
       <c r="I50" t="n">
         <v>-27.5</v>
       </c>
       <c r="J50" t="n">
-        <v>-2.3</v>
+        <v>-6.8</v>
       </c>
       <c r="K50" t="n">
-        <v>-3.1</v>
+        <v>-4.2</v>
       </c>
       <c r="L50" t="n">
-        <v>-25.5</v>
+        <v>-26.6</v>
       </c>
       <c r="M50" t="n">
-        <v>-46.8</v>
+        <v>-52.5</v>
       </c>
       <c r="N50" t="n">
-        <v>-14.1</v>
+        <v>-26.9</v>
       </c>
       <c r="O50" t="n">
-        <v>12.2850815117428</v>
+        <v>15.3991423831546</v>
       </c>
       <c r="P50" t="n">
-        <v>0.4</v>
+        <v>5.9</v>
       </c>
       <c r="Q50" t="n">
-        <v>22.2</v>
+        <v>24.4</v>
       </c>
       <c r="R50" t="n">
-        <v>-45.6310679611651</v>
+        <v>-92.6179084073821</v>
       </c>
       <c r="S50" t="n">
         <v>3.677</v>
@@ -3698,59 +3939,59 @@
     <row r="51">
       <c r="A51" t="inlineStr">
         <is>
-          <t>2020年08月</t>
+          <t>2020年07月</t>
         </is>
       </c>
       <c r="B51" t="n">
-        <v>-15.5</v>
+        <v>-30.8</v>
       </c>
       <c r="C51" t="n">
-        <v>-6.2</v>
+        <v>109.39</v>
       </c>
       <c r="D51" t="n">
-        <v>-6.2</v>
+        <v>-9.1</v>
       </c>
       <c r="E51" t="n">
-        <v>9.81873111782477</v>
+        <v>8.90625</v>
       </c>
       <c r="F51" t="n">
-        <v>-14.1</v>
+        <v>-8.800000000000001</v>
       </c>
       <c r="G51" t="n">
-        <v>-14.6</v>
+        <v>-16.6</v>
       </c>
       <c r="H51" t="n">
-        <v>-14.6</v>
+        <v>-16.6</v>
       </c>
       <c r="I51" t="n">
         <v>-23.4</v>
       </c>
       <c r="J51" t="n">
-        <v>1</v>
+        <v>-2.3</v>
       </c>
       <c r="K51" t="n">
-        <v>0.3</v>
+        <v>-3.1</v>
       </c>
       <c r="L51" t="n">
-        <v>-23.8</v>
+        <v>-25.5</v>
       </c>
       <c r="M51" t="n">
-        <v>-44.4</v>
+        <v>-50.6</v>
       </c>
       <c r="N51" t="n">
-        <v>-10.6</v>
+        <v>-19.8</v>
       </c>
       <c r="O51" t="n">
-        <v>12.555404317991</v>
+        <v>12.3565261154788</v>
       </c>
       <c r="P51" t="n">
-        <v>0.2</v>
+        <v>0.4</v>
       </c>
       <c r="Q51" t="n">
-        <v>23.5</v>
+        <v>23</v>
       </c>
       <c r="R51" t="n">
-        <v>-18.4734513274336</v>
+        <v>-87.2325741890959</v>
       </c>
       <c r="S51" t="n">
         <v>3.6579</v>
@@ -3759,59 +4000,59 @@
     <row r="52">
       <c r="A52" t="inlineStr">
         <is>
-          <t>2020年09月</t>
+          <t>2020年08月</t>
         </is>
       </c>
       <c r="B52" t="n">
-        <v>-26.9</v>
+        <v>-31.2</v>
       </c>
       <c r="C52" t="n">
-        <v>12.3</v>
+        <v>-6.2</v>
       </c>
       <c r="D52" t="n">
-        <v>-3.7</v>
+        <v>-6.2</v>
       </c>
       <c r="E52" t="n">
-        <v>9.73053892215569</v>
+        <v>8.8646967340591</v>
       </c>
       <c r="F52" t="n">
-        <v>-8.800000000000001</v>
+        <v>-5.9</v>
       </c>
       <c r="G52" t="n">
-        <v>-12.3</v>
+        <v>-14.6</v>
       </c>
       <c r="H52" t="n">
-        <v>-12.3</v>
+        <v>-14.6</v>
       </c>
       <c r="I52" t="n">
         <v>-18.8</v>
       </c>
       <c r="J52" t="n">
-        <v>4.1</v>
+        <v>1</v>
       </c>
       <c r="K52" t="n">
-        <v>2</v>
+        <v>0.3</v>
       </c>
       <c r="L52" t="n">
-        <v>-22.4</v>
+        <v>-23.8</v>
       </c>
       <c r="M52" t="n">
-        <v>-41.9</v>
+        <v>-46.8</v>
       </c>
       <c r="N52" t="n">
-        <v>-7.5</v>
+        <v>-14.1</v>
       </c>
       <c r="O52" t="n">
-        <v>14.0051800086414</v>
+        <v>12.2850815117428</v>
       </c>
       <c r="P52" t="n">
         <v>0.2</v>
       </c>
       <c r="Q52" t="n">
-        <v>24.4</v>
+        <v>20.14</v>
       </c>
       <c r="R52" t="n">
-        <v>-75.36738978306509</v>
+        <v>-45.6310679611651</v>
       </c>
       <c r="S52" t="n">
         <v>3.5638</v>
@@ -3820,59 +4061,59 @@
     <row r="53">
       <c r="A53" t="inlineStr">
         <is>
-          <t>2020年10月</t>
+          <t>2020年09月</t>
         </is>
       </c>
       <c r="B53" t="n">
-        <v>-24.9</v>
+        <v>-15.5</v>
       </c>
       <c r="C53" t="n">
-        <v>-34.7</v>
+        <v>12.3</v>
       </c>
       <c r="D53" t="n">
-        <v>-2.4</v>
+        <v>-3.7</v>
       </c>
       <c r="E53" t="n">
-        <v>9.83606557377049</v>
+        <v>8.936825885978431</v>
       </c>
       <c r="F53" t="n">
         <v>-5.9</v>
       </c>
       <c r="G53" t="n">
-        <v>-9.199999999999999</v>
+        <v>-12.3</v>
       </c>
       <c r="H53" t="n">
-        <v>-9.199999999999999</v>
+        <v>-12.3</v>
       </c>
       <c r="I53" t="n">
         <v>-14.4</v>
       </c>
       <c r="J53" t="n">
-        <v>5.7</v>
+        <v>4.1</v>
       </c>
       <c r="K53" t="n">
-        <v>3.3</v>
+        <v>2</v>
       </c>
       <c r="L53" t="n">
-        <v>-20.9</v>
+        <v>-22.4</v>
       </c>
       <c r="M53" t="n">
-        <v>-41.2</v>
+        <v>-44.4</v>
       </c>
       <c r="N53" t="n">
-        <v>-5.6</v>
+        <v>-10.6</v>
       </c>
       <c r="O53" t="n">
-        <v>15.0830414698602</v>
+        <v>12.555404317991</v>
       </c>
       <c r="P53" t="n">
-        <v>0.9</v>
+        <v>0.2</v>
       </c>
       <c r="Q53" t="n">
-        <v>23</v>
+        <v>20.5</v>
       </c>
       <c r="R53" t="n">
-        <v>-80.9699201964395</v>
+        <v>-18.4734513274336</v>
       </c>
       <c r="S53" t="n">
         <v>3.3939</v>
@@ -3881,59 +4122,59 @@
     <row r="54">
       <c r="A54" t="inlineStr">
         <is>
-          <t>2020年11月</t>
+          <t>2020年10月</t>
         </is>
       </c>
       <c r="B54" t="n">
-        <v>-22.1</v>
+        <v>-26.9</v>
       </c>
       <c r="C54" t="n">
-        <v>-32.7</v>
+        <v>-34.7</v>
       </c>
       <c r="D54" t="n">
-        <v>-1</v>
+        <v>-2.4</v>
       </c>
       <c r="E54" t="n">
-        <v>10.3857566765579</v>
+        <v>9.58904109589041</v>
       </c>
       <c r="F54" t="n">
-        <v>-5.9</v>
+        <v>-4.9</v>
       </c>
       <c r="G54" t="n">
-        <v>-9.5</v>
+        <v>-9.199999999999999</v>
       </c>
       <c r="H54" t="n">
-        <v>-9.5</v>
+        <v>-9.199999999999999</v>
       </c>
       <c r="I54" t="n">
         <v>-6</v>
       </c>
       <c r="J54" t="n">
-        <v>7.4</v>
+        <v>5.7</v>
       </c>
       <c r="K54" t="n">
-        <v>3.9</v>
+        <v>3.3</v>
       </c>
       <c r="L54" t="n">
-        <v>-19.1</v>
+        <v>-20.9</v>
       </c>
       <c r="M54" t="n">
-        <v>-41.3</v>
+        <v>-41.9</v>
       </c>
       <c r="N54" t="n">
-        <v>-4.9</v>
+        <v>-7.5</v>
       </c>
       <c r="O54" t="n">
-        <v>15.9614477120938</v>
+        <v>14.0051800086414</v>
       </c>
       <c r="P54" t="n">
-        <v>4.3</v>
+        <v>0.9</v>
       </c>
       <c r="Q54" t="n">
-        <v>20.14</v>
+        <v>21.8</v>
       </c>
       <c r="R54" t="n">
-        <v>-82.7650340979541</v>
+        <v>-75.36738978306509</v>
       </c>
       <c r="S54" t="n">
         <v>4.3129</v>
@@ -3942,59 +4183,59 @@
     <row r="55">
       <c r="A55" t="inlineStr">
         <is>
-          <t>2020年12月</t>
+          <t>2020年11月</t>
         </is>
       </c>
       <c r="B55" t="n">
-        <v>-18.8</v>
+        <v>-24.9</v>
       </c>
       <c r="C55" t="n">
-        <v>-24.6</v>
+        <v>-32.7</v>
       </c>
       <c r="D55" t="n">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="E55" t="n">
-        <v>10.4719764011799</v>
+        <v>9.81873111782477</v>
       </c>
       <c r="F55" t="n">
-        <v>-4.9</v>
+        <v>-2.6</v>
       </c>
       <c r="G55" t="n">
-        <v>-8.4</v>
+        <v>-9.5</v>
       </c>
       <c r="H55" t="n">
-        <v>-8.4</v>
+        <v>-9.5</v>
       </c>
       <c r="I55" t="n">
         <v>-2.3</v>
       </c>
       <c r="J55" t="n">
-        <v>9.1</v>
+        <v>7.4</v>
       </c>
       <c r="K55" t="n">
-        <v>5.4</v>
+        <v>3.9</v>
       </c>
       <c r="L55" t="n">
-        <v>-18.6</v>
+        <v>-19.1</v>
       </c>
       <c r="M55" t="n">
-        <v>-41.8</v>
+        <v>-41.2</v>
       </c>
       <c r="N55" t="n">
-        <v>-4.4</v>
+        <v>-5.6</v>
       </c>
       <c r="O55" t="n">
-        <v>15.3320226709974</v>
+        <v>15.0830414698602</v>
       </c>
       <c r="P55" t="n">
-        <v>8.4</v>
+        <v>4.3</v>
       </c>
       <c r="Q55" t="n">
-        <v>20.5</v>
+        <v>22.1</v>
       </c>
       <c r="R55" t="n">
-        <v>-77.9552715654952</v>
+        <v>-80.9699201964395</v>
       </c>
       <c r="S55" t="n">
         <v>3.3677</v>
@@ -4003,59 +4244,59 @@
     <row r="56">
       <c r="A56" t="inlineStr">
         <is>
-          <t>2021年02月</t>
+          <t>2020年12月</t>
         </is>
       </c>
       <c r="B56" t="n">
-        <v>74.7</v>
+        <v>-22.1</v>
       </c>
       <c r="C56" t="n">
-        <v>-10.7</v>
+        <v>-24.6</v>
       </c>
       <c r="D56" t="n">
-        <v>1.2</v>
+        <v>0</v>
       </c>
       <c r="E56" t="n">
-        <v>9.724238026124819</v>
+        <v>9.73053892215569</v>
       </c>
       <c r="F56" t="n">
-        <v>-2.6</v>
+        <v>-2</v>
       </c>
       <c r="G56" t="n">
-        <v>-5.3</v>
+        <v>-8.4</v>
       </c>
       <c r="H56" t="n">
-        <v>-5.3</v>
+        <v>-8.4</v>
       </c>
       <c r="I56" t="n">
         <v>-1</v>
       </c>
       <c r="J56" t="n">
-        <v>10.8</v>
+        <v>9.1</v>
       </c>
       <c r="K56" t="n">
-        <v>7.4</v>
+        <v>5.4</v>
       </c>
       <c r="L56" t="n">
-        <v>-17</v>
+        <v>-18.6</v>
       </c>
       <c r="M56" t="n">
-        <v>-42.6</v>
+        <v>-41.3</v>
       </c>
       <c r="N56" t="n">
-        <v>-3.9</v>
+        <v>-4.9</v>
       </c>
       <c r="O56" t="n">
-        <v>15.8016583572121</v>
+        <v>15.9614477120938</v>
       </c>
       <c r="P56" t="n">
-        <v>9.5</v>
+        <v>8.4</v>
       </c>
       <c r="Q56" t="n">
-        <v>21.8</v>
+        <v>24</v>
       </c>
       <c r="R56" t="n">
-        <v>-40.9090909090909</v>
+        <v>-82.7650340979541</v>
       </c>
       <c r="S56" t="n">
         <v>4.4802</v>
@@ -4064,57 +4305,59 @@
     <row r="57">
       <c r="A57" t="inlineStr">
         <is>
-          <t>2021年03月</t>
-        </is>
-      </c>
-      <c r="B57" t="inlineStr"/>
+          <t>2021年02月</t>
+        </is>
+      </c>
+      <c r="B57" t="n">
+        <v>-18.8</v>
+      </c>
       <c r="C57" t="n">
-        <v>0</v>
+        <v>-10.7</v>
       </c>
       <c r="D57" t="n">
-        <v>55.7</v>
+        <v>1.2</v>
       </c>
       <c r="E57" t="n">
-        <v>9.942363112391931</v>
+        <v>9.83606557377049</v>
       </c>
       <c r="F57" t="n">
-        <v>-2</v>
+        <v>-1.8</v>
       </c>
       <c r="G57" t="n">
-        <v>-2.9</v>
+        <v>-5.3</v>
       </c>
       <c r="H57" t="n">
-        <v>-2.9</v>
+        <v>-5.3</v>
       </c>
       <c r="I57" t="n">
         <v>0.6</v>
       </c>
       <c r="J57" t="n">
-        <v>36.5</v>
+        <v>10.8</v>
       </c>
       <c r="K57" t="n">
-        <v>63.9</v>
+        <v>7.4</v>
       </c>
       <c r="L57" t="n">
-        <v>34.4</v>
+        <v>-17</v>
       </c>
       <c r="M57" t="n">
-        <v>-71.8</v>
+        <v>-41.8</v>
       </c>
       <c r="N57" t="n">
-        <v>-3.2</v>
+        <v>-4.4</v>
       </c>
       <c r="O57" t="n">
-        <v>16.6477516529387</v>
+        <v>15.3320226709974</v>
       </c>
       <c r="P57" t="n">
-        <v>10.5</v>
+        <v>9.5</v>
       </c>
       <c r="Q57" t="n">
-        <v>22.1</v>
+        <v>26.4</v>
       </c>
       <c r="R57" t="n">
-        <v>77.8985507246377</v>
+        <v>-77.9552715654952</v>
       </c>
       <c r="S57" t="n">
         <v>4.8455</v>
@@ -4123,55 +4366,59 @@
     <row r="58">
       <c r="A58" t="inlineStr">
         <is>
-          <t>2021年04月</t>
-        </is>
-      </c>
-      <c r="B58" t="inlineStr"/>
+          <t>2021年03月</t>
+        </is>
+      </c>
+      <c r="B58" t="n">
+        <v>74.7</v>
+      </c>
       <c r="C58" t="n">
-        <v>-53</v>
+        <v>0</v>
       </c>
       <c r="D58" t="n">
-        <v>46.1</v>
+        <v>55.7</v>
       </c>
       <c r="E58" t="n">
-        <v>10.1865136298422</v>
+        <v>10.3857566765579</v>
       </c>
       <c r="F58" t="n">
-        <v>-1.8</v>
+        <v>-1.6</v>
       </c>
       <c r="G58" t="n">
-        <v>112.1</v>
+        <v>-2.9</v>
       </c>
       <c r="H58" t="n">
-        <v>112.1</v>
+        <v>-2.9</v>
       </c>
       <c r="I58" t="n">
         <v>70.7</v>
       </c>
-      <c r="J58" t="inlineStr"/>
+      <c r="J58" t="n">
+        <v>36.5</v>
+      </c>
       <c r="K58" t="n">
-        <v>39.5</v>
+        <v>63.9</v>
       </c>
       <c r="L58" t="n">
-        <v>18.8</v>
+        <v>34.4</v>
       </c>
       <c r="M58" t="n">
-        <v>-68.2</v>
+        <v>-42.6</v>
       </c>
       <c r="N58" t="n">
-        <v>25</v>
+        <v>-3.9</v>
       </c>
       <c r="O58" t="n">
-        <v>15.5491076577601</v>
+        <v>15.8016583572121</v>
       </c>
       <c r="P58" t="n">
-        <v>11.1</v>
+        <v>10.5</v>
       </c>
       <c r="Q58" t="n">
-        <v>24</v>
+        <v>51.9</v>
       </c>
       <c r="R58" t="n">
-        <v>99.7975708502024</v>
+        <v>-40.9090909090909</v>
       </c>
       <c r="S58" t="n">
         <v>5.0605</v>
@@ -4180,54 +4427,107 @@
     <row r="59">
       <c r="A59" t="inlineStr">
         <is>
-          <t>2021年05月</t>
+          <t>2021年04月</t>
         </is>
       </c>
       <c r="B59" t="inlineStr"/>
       <c r="C59" t="n">
-        <v>-34.4</v>
-      </c>
-      <c r="D59" t="inlineStr"/>
+        <v>-53</v>
+      </c>
+      <c r="D59" t="n">
+        <v>46.1</v>
+      </c>
       <c r="E59" t="n">
-        <v>9.71428571428571</v>
+        <v>10.4719764011799</v>
       </c>
       <c r="F59" t="n">
-        <v>-1.6</v>
+        <v>75.90000000000001</v>
       </c>
       <c r="G59" t="n">
-        <v>87.90000000000001</v>
+        <v>112.1</v>
       </c>
       <c r="H59" t="n">
-        <v>87.90000000000001</v>
+        <v>112.1</v>
       </c>
       <c r="I59" t="inlineStr"/>
       <c r="J59" t="inlineStr"/>
       <c r="K59" t="n">
-        <v>34.6</v>
+        <v>39.5</v>
       </c>
       <c r="L59" t="n">
-        <v>16</v>
+        <v>18.8</v>
       </c>
       <c r="M59" t="n">
-        <v>-67.7</v>
+        <v>-71.8</v>
       </c>
       <c r="N59" t="n">
-        <v>37.1</v>
+        <v>-3.2</v>
       </c>
       <c r="O59" t="n">
-        <v>17.2564411090967</v>
+        <v>16.6477516529387</v>
       </c>
       <c r="P59" t="n">
-        <v>11.8</v>
+        <v>11.1</v>
       </c>
       <c r="Q59" t="n">
-        <v>26.4</v>
+        <v>40.6</v>
       </c>
       <c r="R59" t="n">
-        <v>612.962962962963</v>
+        <v>77.8985507246377</v>
       </c>
       <c r="S59" t="n">
         <v>5.0304</v>
+      </c>
+    </row>
+    <row r="60">
+      <c r="A60" t="inlineStr">
+        <is>
+          <t>2021年05月</t>
+        </is>
+      </c>
+      <c r="B60" t="inlineStr"/>
+      <c r="C60" t="n">
+        <v>-34.4</v>
+      </c>
+      <c r="D60" t="inlineStr"/>
+      <c r="E60" t="n">
+        <v>9.724238026124819</v>
+      </c>
+      <c r="F60" t="inlineStr"/>
+      <c r="G60" t="n">
+        <v>87.90000000000001</v>
+      </c>
+      <c r="H60" t="n">
+        <v>87.90000000000001</v>
+      </c>
+      <c r="I60" t="inlineStr"/>
+      <c r="J60" t="inlineStr"/>
+      <c r="K60" t="n">
+        <v>34.6</v>
+      </c>
+      <c r="L60" t="n">
+        <v>16</v>
+      </c>
+      <c r="M60" t="n">
+        <v>-68.2</v>
+      </c>
+      <c r="N60" t="n">
+        <v>25</v>
+      </c>
+      <c r="O60" t="n">
+        <v>15.5491076577601</v>
+      </c>
+      <c r="P60" t="n">
+        <v>11.8</v>
+      </c>
+      <c r="Q60" t="n">
+        <v>40.1</v>
+      </c>
+      <c r="R60" t="n">
+        <v>99.7975708502024</v>
+      </c>
+      <c r="S60" t="n">
+        <v>6.565</v>
       </c>
     </row>
   </sheetData>
